--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pproporcion.xlsx
@@ -584,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.596915</t>
+          <t>2025-10-16T12:16:24.580716</t>
         </is>
       </c>
     </row>
@@ -672,10 +672,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.597912</t>
+          <t>2025-10-16T12:16:24.580716</t>
         </is>
       </c>
     </row>
@@ -760,10 +760,10 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.597912</t>
+          <t>2025-10-16T12:16:24.581716</t>
         </is>
       </c>
     </row>
@@ -848,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
@@ -913,7 +913,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.597912</t>
+          <t>2025-10-16T12:16:24.581716</t>
         </is>
       </c>
     </row>
@@ -936,10 +936,10 @@
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.597912</t>
+          <t>2025-10-16T12:16:24.581716</t>
         </is>
       </c>
     </row>
@@ -1024,10 +1024,10 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.597912</t>
+          <t>2025-10-16T12:16:24.581716</t>
         </is>
       </c>
     </row>
@@ -1112,10 +1112,10 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.597912</t>
+          <t>2025-10-16T12:16:24.581716</t>
         </is>
       </c>
     </row>
@@ -1200,10 +1200,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.597912</t>
+          <t>2025-10-16T12:16:24.581716</t>
         </is>
       </c>
     </row>
@@ -1288,10 +1288,10 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.598912</t>
+          <t>2025-10-16T12:16:24.581716</t>
         </is>
       </c>
     </row>
@@ -1376,10 +1376,10 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
@@ -1441,7 +1441,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.598912</t>
+          <t>2025-10-16T12:16:24.581716</t>
         </is>
       </c>
     </row>
@@ -1464,10 +1464,10 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.598912</t>
+          <t>2025-10-16T12:16:24.581716</t>
         </is>
       </c>
     </row>
@@ -1552,10 +1552,10 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
@@ -1617,7 +1617,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.598912</t>
+          <t>2025-10-16T12:16:24.582717</t>
         </is>
       </c>
     </row>
@@ -1640,10 +1640,10 @@
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.598912</t>
+          <t>2025-10-16T12:16:24.582717</t>
         </is>
       </c>
     </row>
@@ -1728,10 +1728,10 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
@@ -1793,7 +1793,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.598912</t>
+          <t>2025-10-16T12:16:24.582717</t>
         </is>
       </c>
     </row>
@@ -1816,10 +1816,10 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.598912</t>
+          <t>2025-10-16T12:16:24.582717</t>
         </is>
       </c>
     </row>
@@ -1904,10 +1904,10 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
@@ -1919,7 +1919,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
@@ -1969,7 +1969,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.598912</t>
+          <t>2025-10-16T12:16:24.582717</t>
         </is>
       </c>
     </row>
@@ -1992,10 +1992,10 @@
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.599912</t>
+          <t>2025-10-16T12:16:24.583734</t>
         </is>
       </c>
     </row>
@@ -2080,10 +2080,10 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
@@ -2095,7 +2095,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
@@ -2145,7 +2145,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.599912</t>
+          <t>2025-10-16T12:16:24.583734</t>
         </is>
       </c>
     </row>
@@ -2168,10 +2168,10 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.599912</t>
+          <t>2025-10-16T12:16:24.583734</t>
         </is>
       </c>
     </row>
@@ -2256,10 +2256,10 @@
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.599912</t>
+          <t>2025-10-16T12:16:24.583734</t>
         </is>
       </c>
     </row>
@@ -2344,10 +2344,10 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
@@ -2409,7 +2409,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.599912</t>
+          <t>2025-10-16T12:16:24.584730</t>
         </is>
       </c>
     </row>
@@ -2432,10 +2432,10 @@
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.599912</t>
+          <t>2025-10-16T12:16:24.584730</t>
         </is>
       </c>
     </row>
@@ -2514,16 +2514,16 @@
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -2545,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="O24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.599912</t>
+          <t>2025-10-16T12:16:24.584730</t>
         </is>
       </c>
     </row>
@@ -2608,10 +2608,10 @@
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.599912</t>
+          <t>2025-10-16T12:16:24.584730</t>
         </is>
       </c>
     </row>
@@ -2696,10 +2696,10 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
@@ -2761,7 +2761,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.599912</t>
+          <t>2025-10-16T12:16:24.584730</t>
         </is>
       </c>
     </row>
@@ -2784,10 +2784,10 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.600912</t>
+          <t>2025-10-16T12:16:24.584730</t>
         </is>
       </c>
     </row>
@@ -2872,10 +2872,10 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.600912</t>
+          <t>2025-10-16T12:16:24.585723</t>
         </is>
       </c>
     </row>
@@ -2960,10 +2960,10 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
@@ -3025,7 +3025,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.600912</t>
+          <t>2025-10-16T12:16:24.585723</t>
         </is>
       </c>
     </row>
@@ -3048,10 +3048,10 @@
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.600912</t>
+          <t>2025-10-16T12:16:24.585723</t>
         </is>
       </c>
     </row>
@@ -3136,10 +3136,10 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.600912</t>
+          <t>2025-10-16T12:16:24.585723</t>
         </is>
       </c>
     </row>
@@ -3224,10 +3224,10 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.600912</t>
+          <t>2025-10-16T12:16:24.585723</t>
         </is>
       </c>
     </row>
@@ -3312,10 +3312,10 @@
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.600912</t>
+          <t>2025-10-16T12:16:24.585723</t>
         </is>
       </c>
     </row>
@@ -3400,10 +3400,10 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
@@ -3465,7 +3465,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.600912</t>
+          <t>2025-10-16T12:16:24.585723</t>
         </is>
       </c>
     </row>
@@ -3482,16 +3482,16 @@
         <v>1</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.600912</t>
+          <t>2025-10-16T12:16:24.585723</t>
         </is>
       </c>
     </row>
@@ -3576,10 +3576,10 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
@@ -3641,7 +3641,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.600912</t>
+          <t>2025-10-16T12:16:24.585723</t>
         </is>
       </c>
     </row>
@@ -3664,10 +3664,10 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
@@ -3729,7 +3729,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.601911</t>
+          <t>2025-10-16T12:16:24.585723</t>
         </is>
       </c>
     </row>
@@ -3752,10 +3752,10 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
@@ -3817,7 +3817,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.601911</t>
+          <t>2025-10-16T12:16:24.586722</t>
         </is>
       </c>
     </row>
@@ -3840,10 +3840,10 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
@@ -3905,7 +3905,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.601911</t>
+          <t>2025-10-16T12:16:24.586722</t>
         </is>
       </c>
     </row>
@@ -3928,10 +3928,10 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.601911</t>
+          <t>2025-10-16T12:16:24.586722</t>
         </is>
       </c>
     </row>
@@ -4016,10 +4016,10 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.601911</t>
+          <t>2025-10-16T12:16:24.586722</t>
         </is>
       </c>
     </row>
@@ -4104,10 +4104,10 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
@@ -4169,7 +4169,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.601911</t>
+          <t>2025-10-16T12:16:24.586722</t>
         </is>
       </c>
     </row>
@@ -4192,10 +4192,10 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.601911</t>
+          <t>2025-10-16T12:16:24.586722</t>
         </is>
       </c>
     </row>
@@ -4280,10 +4280,10 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
@@ -4345,7 +4345,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.601911</t>
+          <t>2025-10-16T12:16:24.586722</t>
         </is>
       </c>
     </row>
@@ -4368,10 +4368,10 @@
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.601911</t>
+          <t>2025-10-16T12:16:24.586722</t>
         </is>
       </c>
     </row>
@@ -4456,10 +4456,10 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
@@ -4521,7 +4521,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.602911</t>
+          <t>2025-10-16T12:16:24.586722</t>
         </is>
       </c>
     </row>
@@ -4544,10 +4544,10 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
@@ -4609,7 +4609,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.602911</t>
+          <t>2025-10-16T12:16:24.587721</t>
         </is>
       </c>
     </row>
@@ -4632,10 +4632,10 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
@@ -4697,7 +4697,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.602911</t>
+          <t>2025-10-16T12:16:24.587721</t>
         </is>
       </c>
     </row>
@@ -4720,10 +4720,10 @@
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.602911</t>
+          <t>2025-10-16T12:16:24.587721</t>
         </is>
       </c>
     </row>
@@ -4808,10 +4808,10 @@
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.602911</t>
+          <t>2025-10-16T12:16:24.587721</t>
         </is>
       </c>
     </row>
@@ -4896,10 +4896,10 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
@@ -4961,7 +4961,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.602911</t>
+          <t>2025-10-16T12:16:24.587721</t>
         </is>
       </c>
     </row>
@@ -4984,10 +4984,10 @@
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.602911</t>
+          <t>2025-10-16T12:16:24.588720</t>
         </is>
       </c>
     </row>
@@ -5072,10 +5072,10 @@
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.602911</t>
+          <t>2025-10-16T12:16:24.588720</t>
         </is>
       </c>
     </row>
@@ -5160,10 +5160,10 @@
         <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
@@ -5175,7 +5175,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K54" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.602911</t>
+          <t>2025-10-16T12:16:24.588720</t>
         </is>
       </c>
     </row>
@@ -5248,10 +5248,10 @@
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
@@ -5263,7 +5263,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K55" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.602911</t>
+          <t>2025-10-16T12:16:24.588720</t>
         </is>
       </c>
     </row>
@@ -5336,10 +5336,10 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
@@ -5401,7 +5401,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.603911</t>
+          <t>2025-10-16T12:16:24.589717</t>
         </is>
       </c>
     </row>
@@ -5424,10 +5424,10 @@
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
@@ -5439,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
@@ -5489,7 +5489,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.603911</t>
+          <t>2025-10-16T12:16:24.589717</t>
         </is>
       </c>
     </row>
@@ -5512,10 +5512,10 @@
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.603911</t>
+          <t>2025-10-16T12:16:24.589717</t>
         </is>
       </c>
     </row>
@@ -5600,10 +5600,10 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
@@ -5615,7 +5615,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
@@ -5665,7 +5665,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.603911</t>
+          <t>2025-10-16T12:16:24.589717</t>
         </is>
       </c>
     </row>
@@ -5688,10 +5688,10 @@
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
@@ -5753,7 +5753,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.603911</t>
+          <t>2025-10-16T12:16:24.589717</t>
         </is>
       </c>
     </row>
@@ -5776,10 +5776,10 @@
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
@@ -5791,7 +5791,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
@@ -5841,7 +5841,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.603911</t>
+          <t>2025-10-16T12:16:24.589717</t>
         </is>
       </c>
     </row>
@@ -5864,10 +5864,10 @@
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
@@ -5929,7 +5929,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.603911</t>
+          <t>2025-10-16T12:16:24.589717</t>
         </is>
       </c>
     </row>
@@ -5952,10 +5952,10 @@
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.603911</t>
+          <t>2025-10-16T12:16:24.589717</t>
         </is>
       </c>
     </row>
@@ -6040,10 +6040,10 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
@@ -6105,7 +6105,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.603911</t>
+          <t>2025-10-16T12:16:24.590729</t>
         </is>
       </c>
     </row>
@@ -6128,10 +6128,10 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
@@ -6193,7 +6193,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.604911</t>
+          <t>2025-10-16T12:16:24.590729</t>
         </is>
       </c>
     </row>
@@ -6216,10 +6216,10 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.604911</t>
+          <t>2025-10-16T12:16:24.590729</t>
         </is>
       </c>
     </row>
@@ -6304,10 +6304,10 @@
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="O67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.604911</t>
+          <t>2025-10-16T12:16:24.590729</t>
         </is>
       </c>
     </row>
@@ -6392,10 +6392,10 @@
         <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.604911</t>
+          <t>2025-10-16T12:16:24.590729</t>
         </is>
       </c>
     </row>
@@ -6480,10 +6480,10 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
@@ -6545,7 +6545,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.604911</t>
+          <t>2025-10-16T12:16:24.590729</t>
         </is>
       </c>
     </row>
@@ -6568,10 +6568,10 @@
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
@@ -6633,7 +6633,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.604911</t>
+          <t>2025-10-16T12:16:24.590729</t>
         </is>
       </c>
     </row>
@@ -6656,10 +6656,10 @@
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
@@ -6721,7 +6721,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.604911</t>
+          <t>2025-10-16T12:16:24.590729</t>
         </is>
       </c>
     </row>
@@ -6744,10 +6744,10 @@
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
@@ -6809,7 +6809,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.604911</t>
+          <t>2025-10-16T12:16:24.590729</t>
         </is>
       </c>
     </row>
@@ -6832,10 +6832,10 @@
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="O73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.604911</t>
+          <t>2025-10-16T12:16:24.590729</t>
         </is>
       </c>
     </row>
@@ -6920,10 +6920,10 @@
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
@@ -6935,7 +6935,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
@@ -6985,7 +6985,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.604911</t>
+          <t>2025-10-16T12:16:24.591726</t>
         </is>
       </c>
     </row>
@@ -7008,10 +7008,10 @@
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
@@ -7023,7 +7023,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
@@ -7073,7 +7073,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.605912</t>
+          <t>2025-10-16T12:16:24.591726</t>
         </is>
       </c>
     </row>
@@ -7096,10 +7096,10 @@
         <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.605912</t>
+          <t>2025-10-16T12:16:24.591726</t>
         </is>
       </c>
     </row>
@@ -7184,10 +7184,10 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.605912</t>
+          <t>2025-10-16T12:16:24.591726</t>
         </is>
       </c>
     </row>
@@ -7272,10 +7272,10 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
@@ -7337,7 +7337,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.605912</t>
+          <t>2025-10-16T12:16:24.591726</t>
         </is>
       </c>
     </row>
@@ -7360,10 +7360,10 @@
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
@@ -7385,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.605912</t>
+          <t>2025-10-16T12:16:24.591726</t>
         </is>
       </c>
     </row>
@@ -7448,10 +7448,10 @@
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
@@ -7463,7 +7463,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
@@ -7513,7 +7513,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.605912</t>
+          <t>2025-10-16T12:16:24.591726</t>
         </is>
       </c>
     </row>
@@ -7536,10 +7536,10 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
@@ -7601,7 +7601,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.605912</t>
+          <t>2025-10-16T12:16:24.591726</t>
         </is>
       </c>
     </row>
@@ -7624,10 +7624,10 @@
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
@@ -7639,7 +7639,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K82" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
@@ -7689,7 +7689,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.605912</t>
+          <t>2025-10-16T12:16:24.591726</t>
         </is>
       </c>
     </row>
@@ -7712,10 +7712,10 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
@@ -7727,7 +7727,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K83" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
@@ -7737,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.605912</t>
+          <t>2025-10-16T12:16:24.591726</t>
         </is>
       </c>
     </row>
@@ -7800,10 +7800,10 @@
         <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
@@ -7865,7 +7865,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.606911</t>
+          <t>2025-10-16T12:16:24.592725</t>
         </is>
       </c>
     </row>
@@ -7888,10 +7888,10 @@
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="O85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.606911</t>
+          <t>2025-10-16T12:16:24.592725</t>
         </is>
       </c>
     </row>
@@ -7976,10 +7976,10 @@
         <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
@@ -7991,7 +7991,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K86" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="O86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.606911</t>
+          <t>2025-10-16T12:16:24.592725</t>
         </is>
       </c>
     </row>
@@ -8064,10 +8064,10 @@
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.606911</t>
+          <t>2025-10-16T12:16:24.592725</t>
         </is>
       </c>
     </row>
@@ -8152,10 +8152,10 @@
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="O88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.606911</t>
+          <t>2025-10-16T12:16:24.592725</t>
         </is>
       </c>
     </row>
@@ -8240,10 +8240,10 @@
         <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="O89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.606911</t>
+          <t>2025-10-16T12:16:24.592725</t>
         </is>
       </c>
     </row>
@@ -8322,16 +8322,16 @@
         <v>1</v>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
@@ -8353,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="O90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.606911</t>
+          <t>2025-10-16T12:16:24.592725</t>
         </is>
       </c>
     </row>
@@ -8416,10 +8416,10 @@
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
@@ -8481,7 +8481,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.606911</t>
+          <t>2025-10-16T12:16:24.592725</t>
         </is>
       </c>
     </row>
@@ -8504,10 +8504,10 @@
         <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
@@ -8529,7 +8529,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.606911</t>
+          <t>2025-10-16T12:16:24.592725</t>
         </is>
       </c>
     </row>
@@ -8592,10 +8592,10 @@
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
@@ -8607,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
@@ -8657,7 +8657,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.606911</t>
+          <t>2025-10-16T12:16:24.592725</t>
         </is>
       </c>
     </row>
@@ -8680,10 +8680,10 @@
         <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
@@ -8695,7 +8695,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K94" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.607911</t>
+          <t>2025-10-16T12:16:24.593725</t>
         </is>
       </c>
     </row>
@@ -8768,10 +8768,10 @@
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
@@ -8833,7 +8833,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.607911</t>
+          <t>2025-10-16T12:16:24.593725</t>
         </is>
       </c>
     </row>
@@ -8856,10 +8856,10 @@
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
@@ -8921,7 +8921,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.607911</t>
+          <t>2025-10-16T12:16:24.593725</t>
         </is>
       </c>
     </row>
@@ -8944,10 +8944,10 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
@@ -9009,7 +9009,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.607911</t>
+          <t>2025-10-16T12:16:24.593725</t>
         </is>
       </c>
     </row>
@@ -9032,10 +9032,10 @@
         <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
@@ -9057,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="O98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.607911</t>
+          <t>2025-10-16T12:16:24.593725</t>
         </is>
       </c>
     </row>
@@ -9120,10 +9120,10 @@
         <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
@@ -9185,7 +9185,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.607911</t>
+          <t>2025-10-16T12:16:24.593725</t>
         </is>
       </c>
     </row>
@@ -9208,10 +9208,10 @@
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
@@ -9233,7 +9233,7 @@
         <v>0</v>
       </c>
       <c r="O100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.607911</t>
+          <t>2025-10-16T12:16:24.593725</t>
         </is>
       </c>
     </row>
@@ -9296,10 +9296,10 @@
         <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="O101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.607911</t>
+          <t>2025-10-16T12:16:24.593725</t>
         </is>
       </c>
     </row>
@@ -9384,10 +9384,10 @@
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
@@ -9399,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="O102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.607911</t>
+          <t>2025-10-16T12:16:24.593725</t>
         </is>
       </c>
     </row>
@@ -9472,10 +9472,10 @@
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="O103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.608911</t>
+          <t>2025-10-16T12:16:24.593725</t>
         </is>
       </c>
     </row>
@@ -9560,10 +9560,10 @@
         <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="O104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.608911</t>
+          <t>2025-10-16T12:16:24.595302</t>
         </is>
       </c>
     </row>
@@ -9648,10 +9648,10 @@
         <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
@@ -9663,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
@@ -9713,7 +9713,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.608911</t>
+          <t>2025-10-16T12:16:24.595302</t>
         </is>
       </c>
     </row>
@@ -9736,10 +9736,10 @@
         <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
@@ -9801,7 +9801,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.608911</t>
+          <t>2025-10-16T12:16:24.595302</t>
         </is>
       </c>
     </row>
@@ -9824,10 +9824,10 @@
         <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="O107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.608911</t>
+          <t>2025-10-16T12:16:24.595813</t>
         </is>
       </c>
     </row>
@@ -9912,10 +9912,10 @@
         <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
@@ -9937,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="O108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.608911</t>
+          <t>2025-10-16T12:16:24.595813</t>
         </is>
       </c>
     </row>
@@ -10000,10 +10000,10 @@
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="O109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.608911</t>
+          <t>2025-10-16T12:16:24.595813</t>
         </is>
       </c>
     </row>
@@ -10088,10 +10088,10 @@
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
@@ -10153,7 +10153,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.608911</t>
+          <t>2025-10-16T12:16:24.595813</t>
         </is>
       </c>
     </row>
@@ -10176,10 +10176,10 @@
         <v>7</v>
       </c>
       <c r="F111" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
@@ -10201,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="O111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P111" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.608911</t>
+          <t>2025-10-16T12:16:24.595813</t>
         </is>
       </c>
     </row>
@@ -10264,10 +10264,10 @@
         <v>7</v>
       </c>
       <c r="F112" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="O112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.608911</t>
+          <t>2025-10-16T12:16:24.596831</t>
         </is>
       </c>
     </row>
@@ -10352,10 +10352,10 @@
         <v>7</v>
       </c>
       <c r="F113" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
@@ -10367,7 +10367,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K113" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="O113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.609916</t>
+          <t>2025-10-16T12:16:24.596831</t>
         </is>
       </c>
     </row>
@@ -10440,10 +10440,10 @@
         <v>7</v>
       </c>
       <c r="F114" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
@@ -10465,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="O114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P114" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.609916</t>
+          <t>2025-10-16T12:16:24.597210</t>
         </is>
       </c>
     </row>
@@ -10528,10 +10528,10 @@
         <v>7</v>
       </c>
       <c r="F115" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
@@ -10543,7 +10543,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K115" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
@@ -10593,7 +10593,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.609916</t>
+          <t>2025-10-16T12:16:24.597210</t>
         </is>
       </c>
     </row>
@@ -10616,10 +10616,10 @@
         <v>7</v>
       </c>
       <c r="F116" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
@@ -10631,7 +10631,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K116" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
@@ -10681,7 +10681,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.609916</t>
+          <t>2025-10-16T12:16:24.597737</t>
         </is>
       </c>
     </row>
@@ -10704,10 +10704,10 @@
         <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
@@ -10719,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
@@ -10769,7 +10769,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.610957</t>
+          <t>2025-10-16T12:16:24.597737</t>
         </is>
       </c>
     </row>
@@ -10792,10 +10792,10 @@
         <v>7</v>
       </c>
       <c r="F118" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="O118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.611043</t>
+          <t>2025-10-16T12:16:24.597737</t>
         </is>
       </c>
     </row>
@@ -10880,10 +10880,10 @@
         <v>7</v>
       </c>
       <c r="F119" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
@@ -10945,7 +10945,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.611043</t>
+          <t>2025-10-16T12:16:24.597737</t>
         </is>
       </c>
     </row>
@@ -10968,10 +10968,10 @@
         <v>7</v>
       </c>
       <c r="F120" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
@@ -11033,7 +11033,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.611043</t>
+          <t>2025-10-16T12:16:24.597737</t>
         </is>
       </c>
     </row>
@@ -11056,10 +11056,10 @@
         <v>7</v>
       </c>
       <c r="F121" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
@@ -11071,7 +11071,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
@@ -11121,7 +11121,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.612049</t>
+          <t>2025-10-16T12:16:24.597737</t>
         </is>
       </c>
     </row>
@@ -11144,10 +11144,10 @@
         <v>7</v>
       </c>
       <c r="F122" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="O122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.612049</t>
+          <t>2025-10-16T12:16:24.598683</t>
         </is>
       </c>
     </row>
@@ -11232,10 +11232,10 @@
         <v>7</v>
       </c>
       <c r="F123" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
@@ -11297,7 +11297,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.613047</t>
+          <t>2025-10-16T12:16:24.598683</t>
         </is>
       </c>
     </row>
@@ -11320,10 +11320,10 @@
         <v>7</v>
       </c>
       <c r="F124" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
@@ -11335,7 +11335,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K124" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
@@ -11385,7 +11385,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.613047</t>
+          <t>2025-10-16T12:16:24.599235</t>
         </is>
       </c>
     </row>
@@ -11408,10 +11408,10 @@
         <v>7</v>
       </c>
       <c r="F125" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
@@ -11473,7 +11473,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.613047</t>
+          <t>2025-10-16T12:16:24.599746</t>
         </is>
       </c>
     </row>
@@ -11490,16 +11490,16 @@
         <v>1</v>
       </c>
       <c r="D126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
       </c>
       <c r="F126" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
@@ -11511,7 +11511,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K126" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
@@ -11521,7 +11521,7 @@
         <v>1</v>
       </c>
       <c r="O126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P126" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.613047</t>
+          <t>2025-10-16T12:16:24.599746</t>
         </is>
       </c>
     </row>
@@ -11584,10 +11584,10 @@
         <v>7</v>
       </c>
       <c r="F127" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
@@ -11649,7 +11649,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.613047</t>
+          <t>2025-10-16T12:16:24.600765</t>
         </is>
       </c>
     </row>
@@ -11672,10 +11672,10 @@
         <v>7</v>
       </c>
       <c r="F128" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
@@ -11697,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="O128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P128" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.613047</t>
+          <t>2025-10-16T12:16:24.600765</t>
         </is>
       </c>
     </row>
@@ -11760,10 +11760,10 @@
         <v>7</v>
       </c>
       <c r="F129" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
@@ -11785,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="O129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.614050</t>
+          <t>2025-10-16T12:16:24.601764</t>
         </is>
       </c>
     </row>
@@ -11848,10 +11848,10 @@
         <v>7</v>
       </c>
       <c r="F130" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
@@ -11873,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="O130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P130" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.614050</t>
+          <t>2025-10-16T12:16:24.601764</t>
         </is>
       </c>
     </row>
@@ -11936,10 +11936,10 @@
         <v>7</v>
       </c>
       <c r="F131" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
@@ -11961,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="O131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P131" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.614050</t>
+          <t>2025-10-16T12:16:24.602783</t>
         </is>
       </c>
     </row>
@@ -12024,10 +12024,10 @@
         <v>7</v>
       </c>
       <c r="F132" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
@@ -12049,7 +12049,7 @@
         <v>0</v>
       </c>
       <c r="O132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P132" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.614050</t>
+          <t>2025-10-16T12:16:24.602783</t>
         </is>
       </c>
     </row>
@@ -12112,10 +12112,10 @@
         <v>7</v>
       </c>
       <c r="F133" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
@@ -12127,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
@@ -12177,7 +12177,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.614050</t>
+          <t>2025-10-16T12:16:24.602783</t>
         </is>
       </c>
     </row>
@@ -12200,10 +12200,10 @@
         <v>7</v>
       </c>
       <c r="F134" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
@@ -12225,7 +12225,7 @@
         <v>0</v>
       </c>
       <c r="O134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.614050</t>
+          <t>2025-10-16T12:16:24.603767</t>
         </is>
       </c>
     </row>
@@ -12288,10 +12288,10 @@
         <v>7</v>
       </c>
       <c r="F135" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
@@ -12313,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="O135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P135" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.615050</t>
+          <t>2025-10-16T12:16:24.603767</t>
         </is>
       </c>
     </row>
@@ -12376,10 +12376,10 @@
         <v>7</v>
       </c>
       <c r="F136" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
@@ -12391,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
@@ -12441,7 +12441,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.615050</t>
+          <t>2025-10-16T12:16:24.603767</t>
         </is>
       </c>
     </row>
@@ -12464,10 +12464,10 @@
         <v>7</v>
       </c>
       <c r="F137" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
@@ -12479,7 +12479,7 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
@@ -12489,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="O137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P137" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.615050</t>
+          <t>2025-10-16T12:16:24.603767</t>
         </is>
       </c>
     </row>
@@ -12552,10 +12552,10 @@
         <v>7</v>
       </c>
       <c r="F138" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
@@ -12567,7 +12567,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
@@ -12617,7 +12617,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.615050</t>
+          <t>2025-10-16T12:16:24.603767</t>
         </is>
       </c>
     </row>
@@ -12640,10 +12640,10 @@
         <v>7</v>
       </c>
       <c r="F139" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
@@ -12655,7 +12655,7 @@
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
@@ -12705,7 +12705,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.616050</t>
+          <t>2025-10-16T12:16:24.603767</t>
         </is>
       </c>
     </row>
@@ -12728,10 +12728,10 @@
         <v>7</v>
       </c>
       <c r="F140" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
@@ -12753,7 +12753,7 @@
         <v>0</v>
       </c>
       <c r="O140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P140" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.616050</t>
+          <t>2025-10-16T12:16:24.603767</t>
         </is>
       </c>
     </row>
@@ -12816,10 +12816,10 @@
         <v>7</v>
       </c>
       <c r="F141" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
@@ -12831,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
@@ -12881,7 +12881,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.616050</t>
+          <t>2025-10-16T12:16:24.603767</t>
         </is>
       </c>
     </row>
@@ -12904,10 +12904,10 @@
         <v>7</v>
       </c>
       <c r="F142" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
@@ -12919,7 +12919,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K142" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
@@ -12929,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="O142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P142" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.616050</t>
+          <t>2025-10-16T12:16:24.604768</t>
         </is>
       </c>
     </row>
@@ -12992,10 +12992,10 @@
         <v>7</v>
       </c>
       <c r="F143" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
@@ -13007,7 +13007,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K143" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
@@ -13057,7 +13057,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.616050</t>
+          <t>2025-10-16T12:16:24.604768</t>
         </is>
       </c>
     </row>
@@ -13080,10 +13080,10 @@
         <v>7</v>
       </c>
       <c r="F144" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
@@ -13105,7 +13105,7 @@
         <v>0</v>
       </c>
       <c r="O144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P144" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.617045</t>
+          <t>2025-10-16T12:16:24.604768</t>
         </is>
       </c>
     </row>
@@ -13168,10 +13168,10 @@
         <v>7</v>
       </c>
       <c r="F145" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
@@ -13233,7 +13233,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.617045</t>
+          <t>2025-10-16T12:16:24.604768</t>
         </is>
       </c>
     </row>
@@ -13256,10 +13256,10 @@
         <v>7</v>
       </c>
       <c r="F146" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
@@ -13281,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="O146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P146" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.617045</t>
+          <t>2025-10-16T12:16:24.604768</t>
         </is>
       </c>
     </row>
@@ -13344,10 +13344,10 @@
         <v>7</v>
       </c>
       <c r="F147" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
@@ -13409,7 +13409,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.617045</t>
+          <t>2025-10-16T12:16:24.604768</t>
         </is>
       </c>
     </row>
@@ -13432,10 +13432,10 @@
         <v>7</v>
       </c>
       <c r="F148" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
@@ -13457,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="O148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P148" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.617045</t>
+          <t>2025-10-16T12:16:24.604768</t>
         </is>
       </c>
     </row>
@@ -13520,10 +13520,10 @@
         <v>7</v>
       </c>
       <c r="F149" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="O149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P149" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.617045</t>
+          <t>2025-10-16T12:16:24.604768</t>
         </is>
       </c>
     </row>
@@ -13608,10 +13608,10 @@
         <v>7</v>
       </c>
       <c r="F150" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
@@ -13623,7 +13623,7 @@
         <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
@@ -13633,7 +13633,7 @@
         <v>0</v>
       </c>
       <c r="O150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P150" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.618051</t>
+          <t>2025-10-16T12:16:24.604768</t>
         </is>
       </c>
     </row>
@@ -13696,10 +13696,10 @@
         <v>7</v>
       </c>
       <c r="F151" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
@@ -13711,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
@@ -13721,7 +13721,7 @@
         <v>0</v>
       </c>
       <c r="O151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P151" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.618051</t>
+          <t>2025-10-16T12:16:24.605764</t>
         </is>
       </c>
     </row>
@@ -13784,10 +13784,10 @@
         <v>7</v>
       </c>
       <c r="F152" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
@@ -13849,7 +13849,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.618051</t>
+          <t>2025-10-16T12:16:24.605764</t>
         </is>
       </c>
     </row>
@@ -13872,10 +13872,10 @@
         <v>7</v>
       </c>
       <c r="F153" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
@@ -13897,7 +13897,7 @@
         <v>0</v>
       </c>
       <c r="O153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P153" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.618051</t>
+          <t>2025-10-16T12:16:24.605764</t>
         </is>
       </c>
     </row>
@@ -13954,16 +13954,16 @@
         <v>1</v>
       </c>
       <c r="D154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
       </c>
       <c r="F154" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
@@ -13985,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="O154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P154" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.618051</t>
+          <t>2025-10-16T12:16:24.605764</t>
         </is>
       </c>
     </row>
@@ -14048,10 +14048,10 @@
         <v>7</v>
       </c>
       <c r="F155" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
@@ -14063,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
@@ -14113,7 +14113,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.618051</t>
+          <t>2025-10-16T12:16:24.605764</t>
         </is>
       </c>
     </row>
@@ -14136,10 +14136,10 @@
         <v>7</v>
       </c>
       <c r="F156" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
@@ -14151,7 +14151,7 @@
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
@@ -14161,7 +14161,7 @@
         <v>0</v>
       </c>
       <c r="O156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P156" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.618051</t>
+          <t>2025-10-16T12:16:24.605764</t>
         </is>
       </c>
     </row>
@@ -14224,10 +14224,10 @@
         <v>7</v>
       </c>
       <c r="F157" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
@@ -14249,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="O157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P157" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.618051</t>
+          <t>2025-10-16T12:16:24.605764</t>
         </is>
       </c>
     </row>
@@ -14312,10 +14312,10 @@
         <v>7</v>
       </c>
       <c r="F158" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
@@ -14337,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="O158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P158" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.619049</t>
+          <t>2025-10-16T12:16:24.605764</t>
         </is>
       </c>
     </row>
@@ -14400,10 +14400,10 @@
         <v>7</v>
       </c>
       <c r="F159" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
@@ -14415,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
@@ -14425,7 +14425,7 @@
         <v>0</v>
       </c>
       <c r="O159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P159" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.619049</t>
+          <t>2025-10-16T12:16:24.606765</t>
         </is>
       </c>
     </row>
@@ -14488,10 +14488,10 @@
         <v>7</v>
       </c>
       <c r="F160" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
@@ -14503,7 +14503,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
@@ -14553,7 +14553,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.619049</t>
+          <t>2025-10-16T12:16:24.606765</t>
         </is>
       </c>
     </row>
@@ -14576,10 +14576,10 @@
         <v>7</v>
       </c>
       <c r="F161" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
@@ -14601,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="O161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P161" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.619049</t>
+          <t>2025-10-16T12:16:24.606765</t>
         </is>
       </c>
     </row>
@@ -14664,10 +14664,10 @@
         <v>7</v>
       </c>
       <c r="F162" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
@@ -14679,7 +14679,7 @@
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
@@ -14689,7 +14689,7 @@
         <v>0</v>
       </c>
       <c r="O162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P162" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.619049</t>
+          <t>2025-10-16T12:16:24.606765</t>
         </is>
       </c>
     </row>
@@ -14752,10 +14752,10 @@
         <v>7</v>
       </c>
       <c r="F163" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
@@ -14767,7 +14767,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K163" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
@@ -14817,7 +14817,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.619049</t>
+          <t>2025-10-16T12:16:24.606765</t>
         </is>
       </c>
     </row>
@@ -14840,10 +14840,10 @@
         <v>7</v>
       </c>
       <c r="F164" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
@@ -14905,7 +14905,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.619049</t>
+          <t>2025-10-16T12:16:24.606765</t>
         </is>
       </c>
     </row>
@@ -14928,10 +14928,10 @@
         <v>7</v>
       </c>
       <c r="F165" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
@@ -14943,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
@@ -14993,7 +14993,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.619049</t>
+          <t>2025-10-16T12:16:24.606765</t>
         </is>
       </c>
     </row>
@@ -15016,10 +15016,10 @@
         <v>7</v>
       </c>
       <c r="F166" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
@@ -15031,7 +15031,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K166" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
@@ -15081,7 +15081,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.620049</t>
+          <t>2025-10-16T12:16:24.606765</t>
         </is>
       </c>
     </row>
@@ -15104,10 +15104,10 @@
         <v>7</v>
       </c>
       <c r="F167" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
@@ -15119,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
@@ -15169,7 +15169,7 @@
       <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.620049</t>
+          <t>2025-10-16T12:16:24.606765</t>
         </is>
       </c>
     </row>
@@ -15192,10 +15192,10 @@
         <v>7</v>
       </c>
       <c r="F168" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
@@ -15207,7 +15207,7 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
@@ -15257,7 +15257,7 @@
       <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.620049</t>
+          <t>2025-10-16T12:16:24.606765</t>
         </is>
       </c>
     </row>
@@ -15280,10 +15280,10 @@
         <v>7</v>
       </c>
       <c r="F169" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
@@ -15295,7 +15295,7 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
@@ -15345,7 +15345,7 @@
       <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.620049</t>
+          <t>2025-10-16T12:16:24.607764</t>
         </is>
       </c>
     </row>
@@ -15368,10 +15368,10 @@
         <v>7</v>
       </c>
       <c r="F170" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
@@ -15383,7 +15383,7 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
@@ -15393,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="O170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P170" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.620049</t>
+          <t>2025-10-16T12:16:24.607764</t>
         </is>
       </c>
     </row>
@@ -15456,10 +15456,10 @@
         <v>7</v>
       </c>
       <c r="F171" t="n">
-        <v>1.071783810570028</v>
+        <v>1.028166496293248</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
@@ -15471,7 +15471,7 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
@@ -15521,7 +15521,7 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:51.620049</t>
+          <t>2025-10-16T12:16:24.607764</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pproporcion.xlsx
@@ -649,7 +649,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.192021</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.193024</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.193024</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.193024</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.193024</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.193024</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.194022</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.194022</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.194022</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.194022</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.194022</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.195019</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.195019</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.195019</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.195019</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.195019</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.195019</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.196019</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.196019</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.196019</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.196019</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.197161</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.197161</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.199165</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.200167</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.200167</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.200167</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.200167</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.200167</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.200167</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.200167</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.200167</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.200167</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.201162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.201162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.201162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.201162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.201162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.201162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.201162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.201162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.201162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.201162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.202158</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.202158</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.202158</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.202158</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.202158</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.202158</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.202158</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.202158</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.203159</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.203159</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.203159</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.203159</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.203159</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.203159</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.203159</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.203159</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.203159</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -5929,7 +5929,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.203159</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.204164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.204164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -6193,7 +6193,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.204164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6281,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.204164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.204164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -6457,7 +6457,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.204164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -6545,7 +6545,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.204164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6633,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.204164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.205162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -6809,7 +6809,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.205162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.205162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -6985,7 +6985,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.205162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.205162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.205162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -7249,7 +7249,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.205162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.205162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -7425,7 +7425,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.205162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -7513,7 +7513,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.206166</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.206166</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -7689,7 +7689,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.206166</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.206166</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.207164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -7953,7 +7953,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.207164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -8041,7 +8041,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.207164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8129,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.207164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -8217,7 +8217,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.207164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -8305,7 +8305,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.208161</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.208161</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -8481,7 +8481,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.208161</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -8569,7 +8569,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.208161</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -8657,7 +8657,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.208161</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -8745,7 +8745,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.209161</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -8833,7 +8833,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.209161</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.209161</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.209161</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -9097,7 +9097,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.209161</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -9185,7 +9185,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.209161</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.210164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.210164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -9449,7 +9449,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.210164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -9537,7 +9537,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.210164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -9625,7 +9625,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.210164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -9713,7 +9713,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.210164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -9801,7 +9801,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.210164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -9889,7 +9889,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.210164</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -9977,7 +9977,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.211162</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -10065,7 +10065,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.211610</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -10153,7 +10153,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.211610</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -10241,7 +10241,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.212125</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -10329,7 +10329,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.212125</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.212125</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -10505,7 +10505,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.212125</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -10593,7 +10593,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.212125</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.213143</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.213143</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.213143</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -10945,7 +10945,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.213771</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -11033,7 +11033,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.213771</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -11121,7 +11121,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.214380</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -11209,7 +11209,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.214991</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -11297,7 +11297,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.218010</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -11385,7 +11385,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.218010</t>
+          <t>2025-10-17T07:09:25.631704</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11473,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.219006</t>
+          <t>2025-10-17T07:09:25.647600</t>
         </is>
       </c>
     </row>
@@ -11561,7 +11561,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.219006</t>
+          <t>2025-10-17T07:09:25.647600</t>
         </is>
       </c>
     </row>
@@ -11649,7 +11649,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.219006</t>
+          <t>2025-10-17T07:09:25.647600</t>
         </is>
       </c>
     </row>
@@ -11737,7 +11737,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.219006</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -11825,7 +11825,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.219006</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.220005</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -12001,7 +12001,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.220005</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -12089,7 +12089,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.220005</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -12177,7 +12177,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.220005</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -12265,7 +12265,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.220005</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.221004</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.221004</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -12529,7 +12529,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.221004</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -12617,7 +12617,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.221004</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -12705,7 +12705,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.221004</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -12793,7 +12793,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.222006</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -12881,7 +12881,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.222006</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.222006</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -13057,7 +13057,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.222006</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -13145,7 +13145,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.223012</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -13233,7 +13233,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.223012</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -13321,7 +13321,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.223012</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -13409,7 +13409,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.223012</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -13497,7 +13497,7 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.223012</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -13585,7 +13585,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.223012</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13673,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.223012</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -13761,7 +13761,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.224012</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -13849,7 +13849,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.224012</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -13937,7 +13937,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.224012</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -14025,7 +14025,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.224012</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -14113,7 +14113,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.224012</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -14201,7 +14201,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.224012</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -14289,7 +14289,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.224012</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -14377,7 +14377,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.224012</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -14465,7 +14465,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.225020</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -14553,7 +14553,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.225020</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -14641,7 +14641,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.225020</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -14729,7 +14729,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.225020</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -14817,7 +14817,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.225020</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -14905,7 +14905,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.225020</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -14993,7 +14993,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.225020</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -15081,7 +15081,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.225020</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -15169,7 +15169,7 @@
       <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.225020</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -15257,7 +15257,7 @@
       <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.226007</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -15345,7 +15345,7 @@
       <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.226007</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15433,7 @@
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.226007</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>
@@ -15521,7 +15521,7 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:07.226007</t>
+          <t>2025-10-17T07:09:25.648112</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pproporcion.xlsx
@@ -584,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
@@ -599,7 +599,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.449357</t>
         </is>
       </c>
     </row>
@@ -672,10 +672,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.450357</t>
         </is>
       </c>
     </row>
@@ -760,10 +760,10 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.450357</t>
         </is>
       </c>
     </row>
@@ -848,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
@@ -913,7 +913,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.450357</t>
         </is>
       </c>
     </row>
@@ -936,10 +936,10 @@
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
@@ -951,7 +951,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.450357</t>
         </is>
       </c>
     </row>
@@ -1024,10 +1024,10 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
@@ -1039,7 +1039,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.450357</t>
         </is>
       </c>
     </row>
@@ -1112,10 +1112,10 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.451354</t>
         </is>
       </c>
     </row>
@@ -1200,10 +1200,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.451354</t>
         </is>
       </c>
     </row>
@@ -1288,10 +1288,10 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.451354</t>
         </is>
       </c>
     </row>
@@ -1376,10 +1376,10 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
@@ -1441,7 +1441,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.451354</t>
         </is>
       </c>
     </row>
@@ -1464,10 +1464,10 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.452362</t>
         </is>
       </c>
     </row>
@@ -1552,10 +1552,10 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
@@ -1617,7 +1617,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.452362</t>
         </is>
       </c>
     </row>
@@ -1640,10 +1640,10 @@
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.452362</t>
         </is>
       </c>
     </row>
@@ -1728,10 +1728,10 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
@@ -1793,7 +1793,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.452362</t>
         </is>
       </c>
     </row>
@@ -1816,10 +1816,10 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.452362</t>
         </is>
       </c>
     </row>
@@ -1904,10 +1904,10 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
@@ -1919,7 +1919,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
@@ -1969,7 +1969,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.453357</t>
         </is>
       </c>
     </row>
@@ -1992,10 +1992,10 @@
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.453357</t>
         </is>
       </c>
     </row>
@@ -2080,10 +2080,10 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
@@ -2095,7 +2095,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
@@ -2145,7 +2145,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.454358</t>
         </is>
       </c>
     </row>
@@ -2168,10 +2168,10 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
@@ -2183,7 +2183,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.454358</t>
         </is>
       </c>
     </row>
@@ -2256,10 +2256,10 @@
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.454358</t>
         </is>
       </c>
     </row>
@@ -2344,10 +2344,10 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
@@ -2409,7 +2409,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.454358</t>
         </is>
       </c>
     </row>
@@ -2432,10 +2432,10 @@
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.454358</t>
         </is>
       </c>
     </row>
@@ -2514,16 +2514,16 @@
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -2535,7 +2535,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
@@ -2545,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="O24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.455358</t>
         </is>
       </c>
     </row>
@@ -2608,10 +2608,10 @@
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.455358</t>
         </is>
       </c>
     </row>
@@ -2696,10 +2696,10 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
@@ -2761,7 +2761,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.455358</t>
         </is>
       </c>
     </row>
@@ -2784,10 +2784,10 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -2799,7 +2799,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.455358</t>
         </is>
       </c>
     </row>
@@ -2872,10 +2872,10 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.455358</t>
         </is>
       </c>
     </row>
@@ -2960,10 +2960,10 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
@@ -3025,7 +3025,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.455358</t>
         </is>
       </c>
     </row>
@@ -3048,10 +3048,10 @@
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.455358</t>
         </is>
       </c>
     </row>
@@ -3136,10 +3136,10 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.455358</t>
         </is>
       </c>
     </row>
@@ -3224,10 +3224,10 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.456356</t>
         </is>
       </c>
     </row>
@@ -3312,10 +3312,10 @@
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.456356</t>
         </is>
       </c>
     </row>
@@ -3400,10 +3400,10 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
@@ -3465,7 +3465,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.456356</t>
         </is>
       </c>
     </row>
@@ -3482,16 +3482,16 @@
         <v>1</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
@@ -3503,7 +3503,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.456356</t>
         </is>
       </c>
     </row>
@@ -3576,10 +3576,10 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
@@ -3641,7 +3641,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.456356</t>
         </is>
       </c>
     </row>
@@ -3664,10 +3664,10 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
@@ -3729,7 +3729,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.456356</t>
         </is>
       </c>
     </row>
@@ -3752,10 +3752,10 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
@@ -3817,7 +3817,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.456356</t>
         </is>
       </c>
     </row>
@@ -3840,10 +3840,10 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
@@ -3905,7 +3905,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.457356</t>
         </is>
       </c>
     </row>
@@ -3928,10 +3928,10 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.457356</t>
         </is>
       </c>
     </row>
@@ -4016,10 +4016,10 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -4031,7 +4031,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K41" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.457356</t>
         </is>
       </c>
     </row>
@@ -4104,10 +4104,10 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
@@ -4169,7 +4169,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.457356</t>
         </is>
       </c>
     </row>
@@ -4192,10 +4192,10 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.457356</t>
         </is>
       </c>
     </row>
@@ -4280,10 +4280,10 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
@@ -4345,7 +4345,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.458356</t>
         </is>
       </c>
     </row>
@@ -4368,10 +4368,10 @@
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.458356</t>
         </is>
       </c>
     </row>
@@ -4456,10 +4456,10 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
@@ -4521,7 +4521,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.458356</t>
         </is>
       </c>
     </row>
@@ -4544,10 +4544,10 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
@@ -4609,7 +4609,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.458356</t>
         </is>
       </c>
     </row>
@@ -4632,10 +4632,10 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
@@ -4697,7 +4697,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.459354</t>
         </is>
       </c>
     </row>
@@ -4720,10 +4720,10 @@
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.459354</t>
         </is>
       </c>
     </row>
@@ -4808,10 +4808,10 @@
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.459354</t>
         </is>
       </c>
     </row>
@@ -4896,10 +4896,10 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
@@ -4961,7 +4961,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.459354</t>
         </is>
       </c>
     </row>
@@ -4984,10 +4984,10 @@
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.459354</t>
         </is>
       </c>
     </row>
@@ -5072,10 +5072,10 @@
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.460354</t>
         </is>
       </c>
     </row>
@@ -5160,10 +5160,10 @@
         <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
@@ -5175,7 +5175,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K54" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.460354</t>
         </is>
       </c>
     </row>
@@ -5248,10 +5248,10 @@
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
@@ -5263,7 +5263,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K55" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.460354</t>
         </is>
       </c>
     </row>
@@ -5336,10 +5336,10 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
@@ -5401,7 +5401,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.460354</t>
         </is>
       </c>
     </row>
@@ -5424,10 +5424,10 @@
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
@@ -5439,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
@@ -5489,7 +5489,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.461353</t>
         </is>
       </c>
     </row>
@@ -5512,10 +5512,10 @@
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.461353</t>
         </is>
       </c>
     </row>
@@ -5600,10 +5600,10 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
@@ -5615,7 +5615,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
@@ -5665,7 +5665,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.461353</t>
         </is>
       </c>
     </row>
@@ -5688,10 +5688,10 @@
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
@@ -5753,7 +5753,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.461353</t>
         </is>
       </c>
     </row>
@@ -5776,10 +5776,10 @@
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
@@ -5791,7 +5791,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
@@ -5841,7 +5841,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.461353</t>
         </is>
       </c>
     </row>
@@ -5864,10 +5864,10 @@
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
@@ -5929,7 +5929,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.462354</t>
         </is>
       </c>
     </row>
@@ -5952,10 +5952,10 @@
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -5967,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.462354</t>
         </is>
       </c>
     </row>
@@ -6040,10 +6040,10 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
@@ -6105,7 +6105,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.462354</t>
         </is>
       </c>
     </row>
@@ -6128,10 +6128,10 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
@@ -6193,7 +6193,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.463356</t>
         </is>
       </c>
     </row>
@@ -6216,10 +6216,10 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.463356</t>
         </is>
       </c>
     </row>
@@ -6304,10 +6304,10 @@
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
@@ -6319,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="O67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.464358</t>
         </is>
       </c>
     </row>
@@ -6392,10 +6392,10 @@
         <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.464358</t>
         </is>
       </c>
     </row>
@@ -6480,10 +6480,10 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
@@ -6545,7 +6545,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.464358</t>
         </is>
       </c>
     </row>
@@ -6568,10 +6568,10 @@
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
@@ -6633,7 +6633,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.464358</t>
         </is>
       </c>
     </row>
@@ -6656,10 +6656,10 @@
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
@@ -6721,7 +6721,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.464358</t>
         </is>
       </c>
     </row>
@@ -6744,10 +6744,10 @@
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
@@ -6809,7 +6809,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.465357</t>
         </is>
       </c>
     </row>
@@ -6832,10 +6832,10 @@
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="O73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.465357</t>
         </is>
       </c>
     </row>
@@ -6920,10 +6920,10 @@
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
@@ -6935,7 +6935,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
@@ -6985,7 +6985,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.465357</t>
         </is>
       </c>
     </row>
@@ -7008,10 +7008,10 @@
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
@@ -7023,7 +7023,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
@@ -7073,7 +7073,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.465357</t>
         </is>
       </c>
     </row>
@@ -7096,10 +7096,10 @@
         <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.466358</t>
         </is>
       </c>
     </row>
@@ -7184,10 +7184,10 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
@@ -7199,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.466358</t>
         </is>
       </c>
     </row>
@@ -7272,10 +7272,10 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
@@ -7337,7 +7337,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.466358</t>
         </is>
       </c>
     </row>
@@ -7360,10 +7360,10 @@
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
@@ -7385,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.466358</t>
         </is>
       </c>
     </row>
@@ -7448,10 +7448,10 @@
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
@@ -7513,7 +7513,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.467358</t>
         </is>
       </c>
     </row>
@@ -7536,10 +7536,10 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
@@ -7601,7 +7601,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.467358</t>
         </is>
       </c>
     </row>
@@ -7624,10 +7624,10 @@
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
@@ -7639,7 +7639,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K82" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
@@ -7689,7 +7689,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.467358</t>
         </is>
       </c>
     </row>
@@ -7712,10 +7712,10 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
@@ -7727,7 +7727,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K83" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
@@ -7737,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.468357</t>
         </is>
       </c>
     </row>
@@ -7800,10 +7800,10 @@
         <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
@@ -7865,7 +7865,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.468357</t>
         </is>
       </c>
     </row>
@@ -7888,10 +7888,10 @@
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="O85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.468357</t>
         </is>
       </c>
     </row>
@@ -7976,10 +7976,10 @@
         <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
@@ -7991,7 +7991,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K86" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="O86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.468357</t>
         </is>
       </c>
     </row>
@@ -8064,10 +8064,10 @@
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
@@ -8079,7 +8079,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K87" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.469357</t>
         </is>
       </c>
     </row>
@@ -8152,10 +8152,10 @@
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
@@ -8167,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="O88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.470356</t>
         </is>
       </c>
     </row>
@@ -8240,10 +8240,10 @@
         <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="O89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.470356</t>
         </is>
       </c>
     </row>
@@ -8322,16 +8322,16 @@
         <v>1</v>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
@@ -8343,7 +8343,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K90" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
@@ -8353,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="O90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.471356</t>
         </is>
       </c>
     </row>
@@ -8416,10 +8416,10 @@
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
@@ -8481,7 +8481,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.471356</t>
         </is>
       </c>
     </row>
@@ -8504,10 +8504,10 @@
         <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
@@ -8529,7 +8529,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.471356</t>
         </is>
       </c>
     </row>
@@ -8592,10 +8592,10 @@
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
@@ -8607,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
@@ -8657,7 +8657,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.471356</t>
         </is>
       </c>
     </row>
@@ -8680,10 +8680,10 @@
         <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
@@ -8695,7 +8695,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K94" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.509374</t>
         </is>
       </c>
     </row>
@@ -8768,10 +8768,10 @@
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
@@ -8833,7 +8833,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.509374</t>
         </is>
       </c>
     </row>
@@ -8856,10 +8856,10 @@
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
@@ -8921,7 +8921,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.509374</t>
         </is>
       </c>
     </row>
@@ -8944,10 +8944,10 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
@@ -9009,7 +9009,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.510357</t>
         </is>
       </c>
     </row>
@@ -9032,10 +9032,10 @@
         <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
@@ -9047,7 +9047,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K98" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
@@ -9057,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="O98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.510357</t>
         </is>
       </c>
     </row>
@@ -9120,10 +9120,10 @@
         <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
@@ -9185,7 +9185,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.510357</t>
         </is>
       </c>
     </row>
@@ -9208,10 +9208,10 @@
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
@@ -9233,7 +9233,7 @@
         <v>0</v>
       </c>
       <c r="O100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.510357</t>
         </is>
       </c>
     </row>
@@ -9296,10 +9296,10 @@
         <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
@@ -9311,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="O101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.510357</t>
         </is>
       </c>
     </row>
@@ -9384,10 +9384,10 @@
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
@@ -9399,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="O102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.511357</t>
         </is>
       </c>
     </row>
@@ -9472,10 +9472,10 @@
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="O103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.511357</t>
         </is>
       </c>
     </row>
@@ -9560,10 +9560,10 @@
         <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="O104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.511357</t>
         </is>
       </c>
     </row>
@@ -9648,10 +9648,10 @@
         <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
@@ -9663,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
@@ -9713,7 +9713,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.511357</t>
         </is>
       </c>
     </row>
@@ -9736,10 +9736,10 @@
         <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
@@ -9801,7 +9801,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.511357</t>
         </is>
       </c>
     </row>
@@ -9824,10 +9824,10 @@
         <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
@@ -9839,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="O107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.512355</t>
         </is>
       </c>
     </row>
@@ -9912,10 +9912,10 @@
         <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
@@ -9927,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
@@ -9937,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="O108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.512355</t>
         </is>
       </c>
     </row>
@@ -10000,10 +10000,10 @@
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
@@ -10015,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="O109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.514357</t>
         </is>
       </c>
     </row>
@@ -10088,10 +10088,10 @@
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
@@ -10153,7 +10153,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.514357</t>
         </is>
       </c>
     </row>
@@ -10176,10 +10176,10 @@
         <v>7</v>
       </c>
       <c r="F111" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
@@ -10201,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="O111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P111" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.514357</t>
         </is>
       </c>
     </row>
@@ -10264,10 +10264,10 @@
         <v>7</v>
       </c>
       <c r="F112" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="O112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.514357</t>
         </is>
       </c>
     </row>
@@ -10352,10 +10352,10 @@
         <v>7</v>
       </c>
       <c r="F113" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
@@ -10367,7 +10367,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K113" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="O113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.515359</t>
         </is>
       </c>
     </row>
@@ -10440,10 +10440,10 @@
         <v>7</v>
       </c>
       <c r="F114" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
@@ -10455,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
@@ -10465,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="O114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P114" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.515359</t>
         </is>
       </c>
     </row>
@@ -10528,10 +10528,10 @@
         <v>7</v>
       </c>
       <c r="F115" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
@@ -10543,7 +10543,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K115" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
@@ -10593,7 +10593,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.515359</t>
         </is>
       </c>
     </row>
@@ -10616,10 +10616,10 @@
         <v>7</v>
       </c>
       <c r="F116" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
@@ -10631,7 +10631,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K116" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
@@ -10681,7 +10681,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.515359</t>
         </is>
       </c>
     </row>
@@ -10704,10 +10704,10 @@
         <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
@@ -10719,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
@@ -10769,7 +10769,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.515359</t>
         </is>
       </c>
     </row>
@@ -10792,10 +10792,10 @@
         <v>7</v>
       </c>
       <c r="F118" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
@@ -10807,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="O118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.516358</t>
         </is>
       </c>
     </row>
@@ -10880,10 +10880,10 @@
         <v>7</v>
       </c>
       <c r="F119" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
@@ -10945,7 +10945,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.516358</t>
         </is>
       </c>
     </row>
@@ -10968,10 +10968,10 @@
         <v>7</v>
       </c>
       <c r="F120" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
@@ -11033,7 +11033,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.516358</t>
         </is>
       </c>
     </row>
@@ -11056,10 +11056,10 @@
         <v>7</v>
       </c>
       <c r="F121" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
@@ -11071,7 +11071,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K121" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
@@ -11121,7 +11121,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.516358</t>
         </is>
       </c>
     </row>
@@ -11144,10 +11144,10 @@
         <v>7</v>
       </c>
       <c r="F122" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
@@ -11159,7 +11159,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K122" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="O122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.517357</t>
         </is>
       </c>
     </row>
@@ -11232,10 +11232,10 @@
         <v>7</v>
       </c>
       <c r="F123" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
@@ -11297,7 +11297,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.517357</t>
         </is>
       </c>
     </row>
@@ -11320,10 +11320,10 @@
         <v>7</v>
       </c>
       <c r="F124" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
@@ -11335,7 +11335,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K124" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
@@ -11385,7 +11385,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.631704</t>
+          <t>2025-10-19T23:55:03.523354</t>
         </is>
       </c>
     </row>
@@ -11408,10 +11408,10 @@
         <v>7</v>
       </c>
       <c r="F125" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
@@ -11473,7 +11473,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.647600</t>
+          <t>2025-10-19T23:55:03.524356</t>
         </is>
       </c>
     </row>
@@ -11490,16 +11490,16 @@
         <v>1</v>
       </c>
       <c r="D126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
       </c>
       <c r="F126" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
@@ -11511,7 +11511,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K126" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
@@ -11521,7 +11521,7 @@
         <v>1</v>
       </c>
       <c r="O126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P126" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.647600</t>
+          <t>2025-10-19T23:55:03.524356</t>
         </is>
       </c>
     </row>
@@ -11584,10 +11584,10 @@
         <v>7</v>
       </c>
       <c r="F127" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
@@ -11649,7 +11649,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.647600</t>
+          <t>2025-10-19T23:55:03.524356</t>
         </is>
       </c>
     </row>
@@ -11672,10 +11672,10 @@
         <v>7</v>
       </c>
       <c r="F128" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
@@ -11687,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
@@ -11697,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="O128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P128" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.524356</t>
         </is>
       </c>
     </row>
@@ -11760,10 +11760,10 @@
         <v>7</v>
       </c>
       <c r="F129" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
@@ -11785,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="O129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.525358</t>
         </is>
       </c>
     </row>
@@ -11848,10 +11848,10 @@
         <v>7</v>
       </c>
       <c r="F130" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
@@ -11873,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="O130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P130" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.525358</t>
         </is>
       </c>
     </row>
@@ -11936,10 +11936,10 @@
         <v>7</v>
       </c>
       <c r="F131" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
@@ -11961,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="O131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P131" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.525358</t>
         </is>
       </c>
     </row>
@@ -12024,10 +12024,10 @@
         <v>7</v>
       </c>
       <c r="F132" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
@@ -12039,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
@@ -12049,7 +12049,7 @@
         <v>0</v>
       </c>
       <c r="O132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P132" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.525358</t>
         </is>
       </c>
     </row>
@@ -12112,10 +12112,10 @@
         <v>7</v>
       </c>
       <c r="F133" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
@@ -12127,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
@@ -12177,7 +12177,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.525358</t>
         </is>
       </c>
     </row>
@@ -12200,10 +12200,10 @@
         <v>7</v>
       </c>
       <c r="F134" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
@@ -12215,7 +12215,7 @@
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
@@ -12225,7 +12225,7 @@
         <v>0</v>
       </c>
       <c r="O134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.526358</t>
         </is>
       </c>
     </row>
@@ -12288,10 +12288,10 @@
         <v>7</v>
       </c>
       <c r="F135" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
@@ -12303,7 +12303,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K135" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
@@ -12313,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="O135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P135" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.526358</t>
         </is>
       </c>
     </row>
@@ -12376,10 +12376,10 @@
         <v>7</v>
       </c>
       <c r="F136" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
@@ -12391,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
@@ -12441,7 +12441,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.526358</t>
         </is>
       </c>
     </row>
@@ -12464,10 +12464,10 @@
         <v>7</v>
       </c>
       <c r="F137" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
@@ -12479,7 +12479,7 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
@@ -12489,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="O137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P137" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.526358</t>
         </is>
       </c>
     </row>
@@ -12552,10 +12552,10 @@
         <v>7</v>
       </c>
       <c r="F138" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
@@ -12567,7 +12567,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
@@ -12617,7 +12617,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.526358</t>
         </is>
       </c>
     </row>
@@ -12640,10 +12640,10 @@
         <v>7</v>
       </c>
       <c r="F139" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
@@ -12655,7 +12655,7 @@
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
@@ -12705,7 +12705,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.527356</t>
         </is>
       </c>
     </row>
@@ -12728,10 +12728,10 @@
         <v>7</v>
       </c>
       <c r="F140" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
@@ -12743,7 +12743,7 @@
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
@@ -12753,7 +12753,7 @@
         <v>0</v>
       </c>
       <c r="O140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P140" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.527356</t>
         </is>
       </c>
     </row>
@@ -12816,10 +12816,10 @@
         <v>7</v>
       </c>
       <c r="F141" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
@@ -12831,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
@@ -12881,7 +12881,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.527356</t>
         </is>
       </c>
     </row>
@@ -12904,10 +12904,10 @@
         <v>7</v>
       </c>
       <c r="F142" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
@@ -12919,7 +12919,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K142" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
@@ -12929,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="O142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P142" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.528355</t>
         </is>
       </c>
     </row>
@@ -12992,10 +12992,10 @@
         <v>7</v>
       </c>
       <c r="F143" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
@@ -13007,7 +13007,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K143" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
@@ -13057,7 +13057,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.528355</t>
         </is>
       </c>
     </row>
@@ -13080,10 +13080,10 @@
         <v>7</v>
       </c>
       <c r="F144" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
@@ -13095,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="K144" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
@@ -13105,7 +13105,7 @@
         <v>0</v>
       </c>
       <c r="O144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P144" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.540357</t>
         </is>
       </c>
     </row>
@@ -13168,10 +13168,10 @@
         <v>7</v>
       </c>
       <c r="F145" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
@@ -13233,7 +13233,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.540357</t>
         </is>
       </c>
     </row>
@@ -13256,10 +13256,10 @@
         <v>7</v>
       </c>
       <c r="F146" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
@@ -13271,7 +13271,7 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
@@ -13281,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="O146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P146" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.541357</t>
         </is>
       </c>
     </row>
@@ -13344,10 +13344,10 @@
         <v>7</v>
       </c>
       <c r="F147" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
@@ -13409,7 +13409,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.541357</t>
         </is>
       </c>
     </row>
@@ -13432,10 +13432,10 @@
         <v>7</v>
       </c>
       <c r="F148" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
@@ -13457,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="O148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P148" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.541357</t>
         </is>
       </c>
     </row>
@@ -13520,10 +13520,10 @@
         <v>7</v>
       </c>
       <c r="F149" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
@@ -13535,7 +13535,7 @@
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="O149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P149" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.541357</t>
         </is>
       </c>
     </row>
@@ -13608,10 +13608,10 @@
         <v>7</v>
       </c>
       <c r="F150" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
@@ -13623,7 +13623,7 @@
         <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
@@ -13633,7 +13633,7 @@
         <v>0</v>
       </c>
       <c r="O150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P150" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.541357</t>
         </is>
       </c>
     </row>
@@ -13696,10 +13696,10 @@
         <v>7</v>
       </c>
       <c r="F151" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
@@ -13711,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
@@ -13721,7 +13721,7 @@
         <v>0</v>
       </c>
       <c r="O151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P151" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.542356</t>
         </is>
       </c>
     </row>
@@ -13784,10 +13784,10 @@
         <v>7</v>
       </c>
       <c r="F152" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
@@ -13849,7 +13849,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.542356</t>
         </is>
       </c>
     </row>
@@ -13872,10 +13872,10 @@
         <v>7</v>
       </c>
       <c r="F153" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
@@ -13887,7 +13887,7 @@
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
@@ -13897,7 +13897,7 @@
         <v>0</v>
       </c>
       <c r="O153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P153" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.542356</t>
         </is>
       </c>
     </row>
@@ -13954,16 +13954,16 @@
         <v>1</v>
       </c>
       <c r="D154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
       </c>
       <c r="F154" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
@@ -13975,7 +13975,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K154" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
@@ -13985,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="O154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P154" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.542356</t>
         </is>
       </c>
     </row>
@@ -14048,10 +14048,10 @@
         <v>7</v>
       </c>
       <c r="F155" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
@@ -14063,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
@@ -14113,7 +14113,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.543356</t>
         </is>
       </c>
     </row>
@@ -14136,10 +14136,10 @@
         <v>7</v>
       </c>
       <c r="F156" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
@@ -14151,7 +14151,7 @@
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
@@ -14161,7 +14161,7 @@
         <v>0</v>
       </c>
       <c r="O156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P156" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.543356</t>
         </is>
       </c>
     </row>
@@ -14224,10 +14224,10 @@
         <v>7</v>
       </c>
       <c r="F157" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
@@ -14239,7 +14239,7 @@
         <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
@@ -14249,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="O157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P157" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.543356</t>
         </is>
       </c>
     </row>
@@ -14312,10 +14312,10 @@
         <v>7</v>
       </c>
       <c r="F158" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
@@ -14327,7 +14327,7 @@
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
@@ -14337,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="O158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P158" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.543356</t>
         </is>
       </c>
     </row>
@@ -14400,10 +14400,10 @@
         <v>7</v>
       </c>
       <c r="F159" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
@@ -14415,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
@@ -14425,7 +14425,7 @@
         <v>0</v>
       </c>
       <c r="O159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P159" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.543356</t>
         </is>
       </c>
     </row>
@@ -14488,10 +14488,10 @@
         <v>7</v>
       </c>
       <c r="F160" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
@@ -14503,7 +14503,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
@@ -14553,7 +14553,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.543356</t>
         </is>
       </c>
     </row>
@@ -14576,10 +14576,10 @@
         <v>7</v>
       </c>
       <c r="F161" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
@@ -14591,7 +14591,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K161" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
@@ -14601,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="O161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P161" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.544355</t>
         </is>
       </c>
     </row>
@@ -14664,10 +14664,10 @@
         <v>7</v>
       </c>
       <c r="F162" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
@@ -14679,7 +14679,7 @@
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
@@ -14689,7 +14689,7 @@
         <v>0</v>
       </c>
       <c r="O162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P162" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.544355</t>
         </is>
       </c>
     </row>
@@ -14752,10 +14752,10 @@
         <v>7</v>
       </c>
       <c r="F163" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
@@ -14767,7 +14767,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K163" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
@@ -14817,7 +14817,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.544355</t>
         </is>
       </c>
     </row>
@@ -14840,10 +14840,10 @@
         <v>7</v>
       </c>
       <c r="F164" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
@@ -14905,7 +14905,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.544355</t>
         </is>
       </c>
     </row>
@@ -14928,10 +14928,10 @@
         <v>7</v>
       </c>
       <c r="F165" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
@@ -14943,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
@@ -14993,7 +14993,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.544355</t>
         </is>
       </c>
     </row>
@@ -15016,10 +15016,10 @@
         <v>7</v>
       </c>
       <c r="F166" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
@@ -15031,7 +15031,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K166" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
@@ -15081,7 +15081,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.545354</t>
         </is>
       </c>
     </row>
@@ -15104,10 +15104,10 @@
         <v>7</v>
       </c>
       <c r="F167" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
@@ -15119,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
@@ -15169,7 +15169,7 @@
       <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.545354</t>
         </is>
       </c>
     </row>
@@ -15192,10 +15192,10 @@
         <v>7</v>
       </c>
       <c r="F168" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
@@ -15207,7 +15207,7 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
@@ -15257,7 +15257,7 @@
       <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.549359</t>
         </is>
       </c>
     </row>
@@ -15280,10 +15280,10 @@
         <v>7</v>
       </c>
       <c r="F169" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
@@ -15295,7 +15295,7 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
@@ -15345,7 +15345,7 @@
       <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.550392</t>
         </is>
       </c>
     </row>
@@ -15368,10 +15368,10 @@
         <v>7</v>
       </c>
       <c r="F170" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
@@ -15383,7 +15383,7 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
@@ -15393,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="O170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P170" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.550392</t>
         </is>
       </c>
     </row>
@@ -15456,10 +15456,10 @@
         <v>7</v>
       </c>
       <c r="F171" t="n">
-        <v>1.071783800121984</v>
+        <v>1.028166446272885</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
@@ -15471,7 +15471,7 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
@@ -15521,7 +15521,7 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:25.648112</t>
+          <t>2025-10-19T23:55:03.550392</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pproporcion.xlsx
@@ -64,6 +64,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2D7D9"/>
+          <bgColor rgb="FFF2D7D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -649,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.449357</t>
+          <t>2025-10-20T01:21:29.532328</t>
         </is>
       </c>
     </row>
@@ -737,7 +747,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.450357</t>
+          <t>2025-10-20T01:21:29.532328</t>
         </is>
       </c>
     </row>
@@ -825,7 +835,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.450357</t>
+          <t>2025-10-20T01:21:29.532328</t>
         </is>
       </c>
     </row>
@@ -913,7 +923,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.450357</t>
+          <t>2025-10-20T01:21:29.532328</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1011,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.450357</t>
+          <t>2025-10-20T01:21:29.532328</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1099,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.450357</t>
+          <t>2025-10-20T01:21:29.532328</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1187,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.451354</t>
+          <t>2025-10-20T01:21:29.533329</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1275,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.451354</t>
+          <t>2025-10-20T01:21:29.533329</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1363,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.451354</t>
+          <t>2025-10-20T01:21:29.533329</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1451,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.451354</t>
+          <t>2025-10-20T01:21:29.533329</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1539,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.452362</t>
+          <t>2025-10-20T01:21:29.533329</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1627,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.452362</t>
+          <t>2025-10-20T01:21:29.533329</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1715,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.452362</t>
+          <t>2025-10-20T01:21:29.533329</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1803,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.452362</t>
+          <t>2025-10-20T01:21:29.533329</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1891,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.452362</t>
+          <t>2025-10-20T01:21:29.533329</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1979,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.453357</t>
+          <t>2025-10-20T01:21:29.534328</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2067,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.453357</t>
+          <t>2025-10-20T01:21:29.534328</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2155,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.454358</t>
+          <t>2025-10-20T01:21:29.534328</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2243,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.454358</t>
+          <t>2025-10-20T01:21:29.534328</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2331,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.454358</t>
+          <t>2025-10-20T01:21:29.534328</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2419,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.454358</t>
+          <t>2025-10-20T01:21:29.534328</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2507,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.454358</t>
+          <t>2025-10-20T01:21:29.534328</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2595,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.455358</t>
+          <t>2025-10-20T01:21:29.534328</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2683,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.455358</t>
+          <t>2025-10-20T01:21:29.537336</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2771,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.455358</t>
+          <t>2025-10-20T01:21:29.537336</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2859,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.455358</t>
+          <t>2025-10-20T01:21:29.538330</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2947,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.455358</t>
+          <t>2025-10-20T01:21:29.538330</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3035,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.455358</t>
+          <t>2025-10-20T01:21:29.538330</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3123,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.455358</t>
+          <t>2025-10-20T01:21:29.539332</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3211,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.455358</t>
+          <t>2025-10-20T01:21:29.539332</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3299,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.456356</t>
+          <t>2025-10-20T01:21:29.539332</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3387,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.456356</t>
+          <t>2025-10-20T01:21:29.539332</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3475,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.456356</t>
+          <t>2025-10-20T01:21:29.539332</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3563,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.456356</t>
+          <t>2025-10-20T01:21:29.540336</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3651,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.456356</t>
+          <t>2025-10-20T01:21:29.540336</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3739,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.456356</t>
+          <t>2025-10-20T01:21:29.541333</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3827,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.456356</t>
+          <t>2025-10-20T01:21:29.541333</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3915,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.457356</t>
+          <t>2025-10-20T01:21:29.541333</t>
         </is>
       </c>
     </row>
@@ -3993,7 +4003,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.457356</t>
+          <t>2025-10-20T01:21:29.541333</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4091,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.457356</t>
+          <t>2025-10-20T01:21:29.541333</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4179,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.457356</t>
+          <t>2025-10-20T01:21:29.542337</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4267,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.457356</t>
+          <t>2025-10-20T01:21:29.542337</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4355,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.458356</t>
+          <t>2025-10-20T01:21:29.542337</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4443,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.458356</t>
+          <t>2025-10-20T01:21:29.542337</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4531,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.458356</t>
+          <t>2025-10-20T01:21:29.542337</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4619,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.458356</t>
+          <t>2025-10-20T01:21:29.543334</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4707,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.459354</t>
+          <t>2025-10-20T01:21:29.543334</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4795,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.459354</t>
+          <t>2025-10-20T01:21:29.543334</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4883,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.459354</t>
+          <t>2025-10-20T01:21:29.543334</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4971,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.459354</t>
+          <t>2025-10-20T01:21:29.544332</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5059,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.459354</t>
+          <t>2025-10-20T01:21:29.544332</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5147,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.460354</t>
+          <t>2025-10-20T01:21:29.545337</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5235,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.460354</t>
+          <t>2025-10-20T01:21:29.545698</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5323,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.460354</t>
+          <t>2025-10-20T01:21:29.545698</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5411,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.460354</t>
+          <t>2025-10-20T01:21:29.546271</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5499,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.461353</t>
+          <t>2025-10-20T01:21:29.546271</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5587,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.461353</t>
+          <t>2025-10-20T01:21:29.546271</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5675,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.461353</t>
+          <t>2025-10-20T01:21:29.546974</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5763,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.461353</t>
+          <t>2025-10-20T01:21:29.547016</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5851,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.461353</t>
+          <t>2025-10-20T01:21:29.547016</t>
         </is>
       </c>
     </row>
@@ -5929,7 +5939,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.462354</t>
+          <t>2025-10-20T01:21:29.547573</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6027,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.462354</t>
+          <t>2025-10-20T01:21:29.547573</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6115,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.462354</t>
+          <t>2025-10-20T01:21:29.547573</t>
         </is>
       </c>
     </row>
@@ -6193,7 +6203,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.463356</t>
+          <t>2025-10-20T01:21:29.548130</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6291,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.463356</t>
+          <t>2025-10-20T01:21:29.548130</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6379,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.464358</t>
+          <t>2025-10-20T01:21:29.548658</t>
         </is>
       </c>
     </row>
@@ -6457,7 +6467,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.464358</t>
+          <t>2025-10-20T01:21:29.548687</t>
         </is>
       </c>
     </row>
@@ -6545,7 +6555,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.464358</t>
+          <t>2025-10-20T01:21:29.548687</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6643,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.464358</t>
+          <t>2025-10-20T01:21:29.549215</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6731,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.464358</t>
+          <t>2025-10-20T01:21:29.549215</t>
         </is>
       </c>
     </row>
@@ -6809,7 +6819,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.465357</t>
+          <t>2025-10-20T01:21:29.549215</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6907,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.465357</t>
+          <t>2025-10-20T01:21:29.549779</t>
         </is>
       </c>
     </row>
@@ -6985,7 +6995,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.465357</t>
+          <t>2025-10-20T01:21:29.549779</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7083,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.465357</t>
+          <t>2025-10-20T01:21:29.550308</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7171,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.466358</t>
+          <t>2025-10-20T01:21:29.550336</t>
         </is>
       </c>
     </row>
@@ -7249,7 +7259,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.466358</t>
+          <t>2025-10-20T01:21:29.550336</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7347,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.466358</t>
+          <t>2025-10-20T01:21:29.551036</t>
         </is>
       </c>
     </row>
@@ -7425,7 +7435,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.466358</t>
+          <t>2025-10-20T01:21:29.551036</t>
         </is>
       </c>
     </row>
@@ -7513,7 +7523,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.467358</t>
+          <t>2025-10-20T01:21:29.551036</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7611,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.467358</t>
+          <t>2025-10-20T01:21:29.551570</t>
         </is>
       </c>
     </row>
@@ -7689,7 +7699,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.467358</t>
+          <t>2025-10-20T01:21:29.551570</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7787,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.468357</t>
+          <t>2025-10-20T01:21:29.552095</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7875,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.468357</t>
+          <t>2025-10-20T01:21:29.553094</t>
         </is>
       </c>
     </row>
@@ -7953,7 +7963,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.468357</t>
+          <t>2025-10-20T01:21:29.553094</t>
         </is>
       </c>
     </row>
@@ -8041,7 +8051,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.468357</t>
+          <t>2025-10-20T01:21:29.553094</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8139,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.469357</t>
+          <t>2025-10-20T01:21:29.554497</t>
         </is>
       </c>
     </row>
@@ -8217,7 +8227,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.470356</t>
+          <t>2025-10-20T01:21:29.555123</t>
         </is>
       </c>
     </row>
@@ -8305,7 +8315,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.470356</t>
+          <t>2025-10-20T01:21:29.555655</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8403,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.471356</t>
+          <t>2025-10-20T01:21:29.555681</t>
         </is>
       </c>
     </row>
@@ -8481,7 +8491,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.471356</t>
+          <t>2025-10-20T01:21:29.555681</t>
         </is>
       </c>
     </row>
@@ -8569,7 +8579,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.471356</t>
+          <t>2025-10-20T01:21:29.556210</t>
         </is>
       </c>
     </row>
@@ -8657,7 +8667,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.471356</t>
+          <t>2025-10-20T01:21:29.556210</t>
         </is>
       </c>
     </row>
@@ -8745,7 +8755,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.509374</t>
+          <t>2025-10-20T01:21:29.556210</t>
         </is>
       </c>
     </row>
@@ -8833,7 +8843,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.509374</t>
+          <t>2025-10-20T01:21:29.556210</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8931,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.509374</t>
+          <t>2025-10-20T01:21:29.556210</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9019,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.510357</t>
+          <t>2025-10-20T01:21:29.557254</t>
         </is>
       </c>
     </row>
@@ -9097,7 +9107,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.510357</t>
+          <t>2025-10-20T01:21:29.557380</t>
         </is>
       </c>
     </row>
@@ -9185,7 +9195,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.510357</t>
+          <t>2025-10-20T01:21:29.557380</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9283,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.510357</t>
+          <t>2025-10-20T01:21:29.557380</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9371,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.510357</t>
+          <t>2025-10-20T01:21:29.557380</t>
         </is>
       </c>
     </row>
@@ -9449,7 +9459,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.511357</t>
+          <t>2025-10-20T01:21:29.557380</t>
         </is>
       </c>
     </row>
@@ -9537,7 +9547,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.511357</t>
+          <t>2025-10-20T01:21:29.557380</t>
         </is>
       </c>
     </row>
@@ -9625,7 +9635,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.511357</t>
+          <t>2025-10-20T01:21:29.557380</t>
         </is>
       </c>
     </row>
@@ -9713,7 +9723,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.511357</t>
+          <t>2025-10-20T01:21:29.557380</t>
         </is>
       </c>
     </row>
@@ -9801,7 +9811,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.511357</t>
+          <t>2025-10-20T01:21:29.558381</t>
         </is>
       </c>
     </row>
@@ -9889,7 +9899,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.512355</t>
+          <t>2025-10-20T01:21:29.558381</t>
         </is>
       </c>
     </row>
@@ -9977,7 +9987,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.512355</t>
+          <t>2025-10-20T01:21:29.558381</t>
         </is>
       </c>
     </row>
@@ -10065,7 +10075,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.514357</t>
+          <t>2025-10-20T01:21:29.558381</t>
         </is>
       </c>
     </row>
@@ -10153,7 +10163,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.514357</t>
+          <t>2025-10-20T01:21:29.558381</t>
         </is>
       </c>
     </row>
@@ -10241,7 +10251,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.514357</t>
+          <t>2025-10-20T01:21:29.558381</t>
         </is>
       </c>
     </row>
@@ -10329,7 +10339,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.514357</t>
+          <t>2025-10-20T01:21:29.558381</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10427,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.515359</t>
+          <t>2025-10-20T01:21:29.558381</t>
         </is>
       </c>
     </row>
@@ -10505,7 +10515,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.515359</t>
+          <t>2025-10-20T01:21:29.558381</t>
         </is>
       </c>
     </row>
@@ -10593,7 +10603,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.515359</t>
+          <t>2025-10-20T01:21:29.559381</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10691,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.515359</t>
+          <t>2025-10-20T01:21:29.559381</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10779,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.515359</t>
+          <t>2025-10-20T01:21:29.559381</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10867,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.516358</t>
+          <t>2025-10-20T01:21:29.559381</t>
         </is>
       </c>
     </row>
@@ -10945,7 +10955,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.516358</t>
+          <t>2025-10-20T01:21:29.559381</t>
         </is>
       </c>
     </row>
@@ -11033,7 +11043,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.516358</t>
+          <t>2025-10-20T01:21:29.559381</t>
         </is>
       </c>
     </row>
@@ -11121,7 +11131,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.516358</t>
+          <t>2025-10-20T01:21:29.560385</t>
         </is>
       </c>
     </row>
@@ -11209,7 +11219,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.517357</t>
+          <t>2025-10-20T01:21:29.560385</t>
         </is>
       </c>
     </row>
@@ -11297,7 +11307,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.517357</t>
+          <t>2025-10-20T01:21:29.560385</t>
         </is>
       </c>
     </row>
@@ -11385,7 +11395,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.523354</t>
+          <t>2025-10-20T01:21:29.560385</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11483,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.524356</t>
+          <t>2025-10-20T01:21:29.560385</t>
         </is>
       </c>
     </row>
@@ -11561,7 +11571,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.524356</t>
+          <t>2025-10-20T01:21:29.560385</t>
         </is>
       </c>
     </row>
@@ -11649,7 +11659,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.524356</t>
+          <t>2025-10-20T01:21:29.561383</t>
         </is>
       </c>
     </row>
@@ -11737,7 +11747,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.524356</t>
+          <t>2025-10-20T01:21:29.561383</t>
         </is>
       </c>
     </row>
@@ -11825,7 +11835,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.525358</t>
+          <t>2025-10-20T01:21:29.561383</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11923,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.525358</t>
+          <t>2025-10-20T01:21:29.561383</t>
         </is>
       </c>
     </row>
@@ -12001,7 +12011,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.525358</t>
+          <t>2025-10-20T01:21:29.561383</t>
         </is>
       </c>
     </row>
@@ -12089,7 +12099,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.525358</t>
+          <t>2025-10-20T01:21:29.561383</t>
         </is>
       </c>
     </row>
@@ -12177,7 +12187,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.525358</t>
+          <t>2025-10-20T01:21:29.561383</t>
         </is>
       </c>
     </row>
@@ -12265,7 +12275,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.526358</t>
+          <t>2025-10-20T01:21:29.561383</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12363,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.526358</t>
+          <t>2025-10-20T01:21:29.562382</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12451,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.526358</t>
+          <t>2025-10-20T01:21:29.562382</t>
         </is>
       </c>
     </row>
@@ -12529,7 +12539,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.526358</t>
+          <t>2025-10-20T01:21:29.562382</t>
         </is>
       </c>
     </row>
@@ -12617,7 +12627,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.526358</t>
+          <t>2025-10-20T01:21:29.562382</t>
         </is>
       </c>
     </row>
@@ -12705,7 +12715,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.527356</t>
+          <t>2025-10-20T01:21:29.562382</t>
         </is>
       </c>
     </row>
@@ -12793,7 +12803,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.527356</t>
+          <t>2025-10-20T01:21:29.562382</t>
         </is>
       </c>
     </row>
@@ -12881,7 +12891,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.527356</t>
+          <t>2025-10-20T01:21:29.562382</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12979,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.528355</t>
+          <t>2025-10-20T01:21:29.562382</t>
         </is>
       </c>
     </row>
@@ -13057,7 +13067,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.528355</t>
+          <t>2025-10-20T01:21:29.562382</t>
         </is>
       </c>
     </row>
@@ -13145,7 +13155,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.540357</t>
+          <t>2025-10-20T01:21:29.563382</t>
         </is>
       </c>
     </row>
@@ -13233,7 +13243,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.540357</t>
+          <t>2025-10-20T01:21:29.563382</t>
         </is>
       </c>
     </row>
@@ -13321,7 +13331,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.541357</t>
+          <t>2025-10-20T01:21:29.563382</t>
         </is>
       </c>
     </row>
@@ -13409,7 +13419,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.541357</t>
+          <t>2025-10-20T01:21:29.563382</t>
         </is>
       </c>
     </row>
@@ -13497,7 +13507,7 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.541357</t>
+          <t>2025-10-20T01:21:29.563382</t>
         </is>
       </c>
     </row>
@@ -13585,7 +13595,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.541357</t>
+          <t>2025-10-20T01:21:29.563382</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13683,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.541357</t>
+          <t>2025-10-20T01:21:29.563382</t>
         </is>
       </c>
     </row>
@@ -13761,7 +13771,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.542356</t>
+          <t>2025-10-20T01:21:29.563382</t>
         </is>
       </c>
     </row>
@@ -13849,7 +13859,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.542356</t>
+          <t>2025-10-20T01:21:29.563382</t>
         </is>
       </c>
     </row>
@@ -13937,7 +13947,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.542356</t>
+          <t>2025-10-20T01:21:29.563382</t>
         </is>
       </c>
     </row>
@@ -14025,7 +14035,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.542356</t>
+          <t>2025-10-20T01:21:29.564381</t>
         </is>
       </c>
     </row>
@@ -14113,7 +14123,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.543356</t>
+          <t>2025-10-20T01:21:29.564381</t>
         </is>
       </c>
     </row>
@@ -14201,7 +14211,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.543356</t>
+          <t>2025-10-20T01:21:29.564381</t>
         </is>
       </c>
     </row>
@@ -14289,7 +14299,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.543356</t>
+          <t>2025-10-20T01:21:29.564381</t>
         </is>
       </c>
     </row>
@@ -14377,7 +14387,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.543356</t>
+          <t>2025-10-20T01:21:29.564381</t>
         </is>
       </c>
     </row>
@@ -14465,7 +14475,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.543356</t>
+          <t>2025-10-20T01:21:29.564381</t>
         </is>
       </c>
     </row>
@@ -14553,7 +14563,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.543356</t>
+          <t>2025-10-20T01:21:29.564381</t>
         </is>
       </c>
     </row>
@@ -14641,7 +14651,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.544355</t>
+          <t>2025-10-20T01:21:29.564381</t>
         </is>
       </c>
     </row>
@@ -14729,7 +14739,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.544355</t>
+          <t>2025-10-20T01:21:29.564381</t>
         </is>
       </c>
     </row>
@@ -14817,7 +14827,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.544355</t>
+          <t>2025-10-20T01:21:29.565381</t>
         </is>
       </c>
     </row>
@@ -14905,7 +14915,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.544355</t>
+          <t>2025-10-20T01:21:29.565381</t>
         </is>
       </c>
     </row>
@@ -14993,7 +15003,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.544355</t>
+          <t>2025-10-20T01:21:29.565381</t>
         </is>
       </c>
     </row>
@@ -15081,7 +15091,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.545354</t>
+          <t>2025-10-20T01:21:29.565381</t>
         </is>
       </c>
     </row>
@@ -15169,7 +15179,7 @@
       <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.545354</t>
+          <t>2025-10-20T01:21:29.565381</t>
         </is>
       </c>
     </row>
@@ -15257,7 +15267,7 @@
       <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.549359</t>
+          <t>2025-10-20T01:21:29.565381</t>
         </is>
       </c>
     </row>
@@ -15345,7 +15355,7 @@
       <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.550392</t>
+          <t>2025-10-20T01:21:29.565381</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15443,7 @@
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.550392</t>
+          <t>2025-10-20T01:21:29.565381</t>
         </is>
       </c>
     </row>
@@ -15521,11 +15531,16 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:03.550392</t>
+          <t>2025-10-20T01:21:29.565381</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:Z171">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>=$D2=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pproporcion.xlsx
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.532328</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.532328</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.532328</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.532328</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.532328</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.532328</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.533329</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.533329</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.533329</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.533329</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.533329</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.533329</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.533329</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.533329</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.533329</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.534328</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.534328</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.534328</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.534328</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.534328</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.534328</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.534328</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.534328</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.537336</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.537336</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.538330</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.538330</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.538330</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.539332</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.539332</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.539332</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.539332</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.539332</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.540336</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.540336</t>
+          <t>2025-10-23T11:29:11.832183</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.541333</t>
+          <t>2025-10-23T11:29:11.844500</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.541333</t>
+          <t>2025-10-23T11:29:11.844500</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.541333</t>
+          <t>2025-10-23T11:29:11.845500</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.541333</t>
+          <t>2025-10-23T11:29:11.845500</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.541333</t>
+          <t>2025-10-23T11:29:11.845500</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.542337</t>
+          <t>2025-10-23T11:29:11.845500</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.542337</t>
+          <t>2025-10-23T11:29:11.845500</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.542337</t>
+          <t>2025-10-23T11:29:11.845500</t>
         </is>
       </c>
     </row>
@@ -4443,7 +4443,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.542337</t>
+          <t>2025-10-23T11:29:11.845500</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.542337</t>
+          <t>2025-10-23T11:29:11.845500</t>
         </is>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.543334</t>
+          <t>2025-10-23T11:29:11.846497</t>
         </is>
       </c>
     </row>
@@ -4707,7 +4707,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.543334</t>
+          <t>2025-10-23T11:29:11.846497</t>
         </is>
       </c>
     </row>
@@ -4795,7 +4795,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.543334</t>
+          <t>2025-10-23T11:29:11.846497</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.543334</t>
+          <t>2025-10-23T11:29:11.846497</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.544332</t>
+          <t>2025-10-23T11:29:11.846497</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.544332</t>
+          <t>2025-10-23T11:29:11.846497</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.545337</t>
+          <t>2025-10-23T11:29:11.846497</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.545698</t>
+          <t>2025-10-23T11:29:11.846497</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.545698</t>
+          <t>2025-10-23T11:29:11.846497</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.546271</t>
+          <t>2025-10-23T11:29:11.847497</t>
         </is>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.546271</t>
+          <t>2025-10-23T11:29:11.847497</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.546271</t>
+          <t>2025-10-23T11:29:11.847497</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.546974</t>
+          <t>2025-10-23T11:29:11.847497</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.547016</t>
+          <t>2025-10-23T11:29:11.847497</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.547016</t>
+          <t>2025-10-23T11:29:11.847497</t>
         </is>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.547573</t>
+          <t>2025-10-23T11:29:11.847497</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.547573</t>
+          <t>2025-10-23T11:29:11.847497</t>
         </is>
       </c>
     </row>
@@ -6115,7 +6115,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.547573</t>
+          <t>2025-10-23T11:29:11.848498</t>
         </is>
       </c>
     </row>
@@ -6203,7 +6203,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.548130</t>
+          <t>2025-10-23T11:29:11.848498</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6291,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.548130</t>
+          <t>2025-10-23T11:29:11.848498</t>
         </is>
       </c>
     </row>
@@ -6379,7 +6379,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.548658</t>
+          <t>2025-10-23T11:29:11.848498</t>
         </is>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.548687</t>
+          <t>2025-10-23T11:29:11.848498</t>
         </is>
       </c>
     </row>
@@ -6555,7 +6555,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.548687</t>
+          <t>2025-10-23T11:29:11.848498</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.549215</t>
+          <t>2025-10-23T11:29:11.848498</t>
         </is>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.549215</t>
+          <t>2025-10-23T11:29:11.848498</t>
         </is>
       </c>
     </row>
@@ -6819,7 +6819,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.549215</t>
+          <t>2025-10-23T11:29:11.848498</t>
         </is>
       </c>
     </row>
@@ -6907,7 +6907,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.549779</t>
+          <t>2025-10-23T11:29:11.849500</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6995,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.549779</t>
+          <t>2025-10-23T11:29:11.849500</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.550308</t>
+          <t>2025-10-23T11:29:11.849500</t>
         </is>
       </c>
     </row>
@@ -7171,7 +7171,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.550336</t>
+          <t>2025-10-23T11:29:11.849500</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7259,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.550336</t>
+          <t>2025-10-23T11:29:11.849500</t>
         </is>
       </c>
     </row>
@@ -7347,7 +7347,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.551036</t>
+          <t>2025-10-23T11:29:11.849500</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.551036</t>
+          <t>2025-10-23T11:29:11.849500</t>
         </is>
       </c>
     </row>
@@ -7523,7 +7523,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.551036</t>
+          <t>2025-10-23T11:29:11.849500</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.551570</t>
+          <t>2025-10-23T11:29:11.850500</t>
         </is>
       </c>
     </row>
@@ -7699,7 +7699,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.551570</t>
+          <t>2025-10-23T11:29:11.850500</t>
         </is>
       </c>
     </row>
@@ -7787,7 +7787,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.552095</t>
+          <t>2025-10-23T11:29:11.850500</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.553094</t>
+          <t>2025-10-23T11:29:11.850500</t>
         </is>
       </c>
     </row>
@@ -7963,7 +7963,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.553094</t>
+          <t>2025-10-23T11:29:11.850500</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.553094</t>
+          <t>2025-10-23T11:29:11.850500</t>
         </is>
       </c>
     </row>
@@ -8139,7 +8139,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.554497</t>
+          <t>2025-10-23T11:29:11.850500</t>
         </is>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.555123</t>
+          <t>2025-10-23T11:29:11.850500</t>
         </is>
       </c>
     </row>
@@ -8315,7 +8315,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.555655</t>
+          <t>2025-10-23T11:29:11.851496</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.555681</t>
+          <t>2025-10-23T11:29:11.851496</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.555681</t>
+          <t>2025-10-23T11:29:11.851496</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.556210</t>
+          <t>2025-10-23T11:29:11.851496</t>
         </is>
       </c>
     </row>
@@ -8667,7 +8667,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.556210</t>
+          <t>2025-10-23T11:29:11.851496</t>
         </is>
       </c>
     </row>
@@ -8755,7 +8755,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.556210</t>
+          <t>2025-10-23T11:29:11.851496</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.556210</t>
+          <t>2025-10-23T11:29:11.851496</t>
         </is>
       </c>
     </row>
@@ -8931,7 +8931,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.556210</t>
+          <t>2025-10-23T11:29:11.851496</t>
         </is>
       </c>
     </row>
@@ -9019,7 +9019,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.557254</t>
+          <t>2025-10-23T11:29:11.851496</t>
         </is>
       </c>
     </row>
@@ -9107,7 +9107,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.557380</t>
+          <t>2025-10-23T11:29:11.852495</t>
         </is>
       </c>
     </row>
@@ -9195,7 +9195,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.557380</t>
+          <t>2025-10-23T11:29:11.852495</t>
         </is>
       </c>
     </row>
@@ -9283,7 +9283,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.557380</t>
+          <t>2025-10-23T11:29:11.852495</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9371,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.557380</t>
+          <t>2025-10-23T11:29:11.852495</t>
         </is>
       </c>
     </row>
@@ -9459,7 +9459,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.557380</t>
+          <t>2025-10-23T11:29:11.852495</t>
         </is>
       </c>
     </row>
@@ -9547,7 +9547,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.557380</t>
+          <t>2025-10-23T11:29:11.852495</t>
         </is>
       </c>
     </row>
@@ -9635,7 +9635,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.557380</t>
+          <t>2025-10-23T11:29:11.852495</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.557380</t>
+          <t>2025-10-23T11:29:11.852495</t>
         </is>
       </c>
     </row>
@@ -9811,7 +9811,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.558381</t>
+          <t>2025-10-23T11:29:11.853498</t>
         </is>
       </c>
     </row>
@@ -9899,7 +9899,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.558381</t>
+          <t>2025-10-23T11:29:11.853498</t>
         </is>
       </c>
     </row>
@@ -9987,7 +9987,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.558381</t>
+          <t>2025-10-23T11:29:11.853498</t>
         </is>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.558381</t>
+          <t>2025-10-23T11:29:11.853498</t>
         </is>
       </c>
     </row>
@@ -10163,7 +10163,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.558381</t>
+          <t>2025-10-23T11:29:11.853498</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10251,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.558381</t>
+          <t>2025-10-23T11:29:11.853498</t>
         </is>
       </c>
     </row>
@@ -10339,7 +10339,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.558381</t>
+          <t>2025-10-23T11:29:11.853498</t>
         </is>
       </c>
     </row>
@@ -10427,7 +10427,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.558381</t>
+          <t>2025-10-23T11:29:11.853498</t>
         </is>
       </c>
     </row>
@@ -10515,7 +10515,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.558381</t>
+          <t>2025-10-23T11:29:11.853498</t>
         </is>
       </c>
     </row>
@@ -10603,7 +10603,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.559381</t>
+          <t>2025-10-23T11:29:11.854499</t>
         </is>
       </c>
     </row>
@@ -10691,7 +10691,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.559381</t>
+          <t>2025-10-23T11:29:11.854499</t>
         </is>
       </c>
     </row>
@@ -10779,7 +10779,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.559381</t>
+          <t>2025-10-23T11:29:11.854499</t>
         </is>
       </c>
     </row>
@@ -10867,7 +10867,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.559381</t>
+          <t>2025-10-23T11:29:11.854499</t>
         </is>
       </c>
     </row>
@@ -10955,7 +10955,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.559381</t>
+          <t>2025-10-23T11:29:11.854499</t>
         </is>
       </c>
     </row>
@@ -11043,7 +11043,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.559381</t>
+          <t>2025-10-23T11:29:11.855504</t>
         </is>
       </c>
     </row>
@@ -11131,7 +11131,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.560385</t>
+          <t>2025-10-23T11:29:11.855504</t>
         </is>
       </c>
     </row>
@@ -11219,7 +11219,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.560385</t>
+          <t>2025-10-23T11:29:11.855504</t>
         </is>
       </c>
     </row>
@@ -11307,7 +11307,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.560385</t>
+          <t>2025-10-23T11:29:11.855504</t>
         </is>
       </c>
     </row>
@@ -11395,7 +11395,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.560385</t>
+          <t>2025-10-23T11:29:11.855504</t>
         </is>
       </c>
     </row>
@@ -11483,7 +11483,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.560385</t>
+          <t>2025-10-23T11:29:11.855504</t>
         </is>
       </c>
     </row>
@@ -11571,7 +11571,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.560385</t>
+          <t>2025-10-23T11:29:11.855504</t>
         </is>
       </c>
     </row>
@@ -11659,7 +11659,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.561383</t>
+          <t>2025-10-23T11:29:11.855504</t>
         </is>
       </c>
     </row>
@@ -11747,7 +11747,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.561383</t>
+          <t>2025-10-23T11:29:11.856497</t>
         </is>
       </c>
     </row>
@@ -11835,7 +11835,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.561383</t>
+          <t>2025-10-23T11:29:11.856497</t>
         </is>
       </c>
     </row>
@@ -11923,7 +11923,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.561383</t>
+          <t>2025-10-23T11:29:11.856497</t>
         </is>
       </c>
     </row>
@@ -12011,7 +12011,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.561383</t>
+          <t>2025-10-23T11:29:11.856497</t>
         </is>
       </c>
     </row>
@@ -12099,7 +12099,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.561383</t>
+          <t>2025-10-23T11:29:11.856497</t>
         </is>
       </c>
     </row>
@@ -12187,7 +12187,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.561383</t>
+          <t>2025-10-23T11:29:11.856497</t>
         </is>
       </c>
     </row>
@@ -12275,7 +12275,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.561383</t>
+          <t>2025-10-23T11:29:11.856497</t>
         </is>
       </c>
     </row>
@@ -12363,7 +12363,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.562382</t>
+          <t>2025-10-23T11:29:11.856497</t>
         </is>
       </c>
     </row>
@@ -12451,7 +12451,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.562382</t>
+          <t>2025-10-23T11:29:11.856497</t>
         </is>
       </c>
     </row>
@@ -12539,7 +12539,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.562382</t>
+          <t>2025-10-23T11:29:11.857501</t>
         </is>
       </c>
     </row>
@@ -12627,7 +12627,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.562382</t>
+          <t>2025-10-23T11:29:11.857501</t>
         </is>
       </c>
     </row>
@@ -12715,7 +12715,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.562382</t>
+          <t>2025-10-23T11:29:11.857501</t>
         </is>
       </c>
     </row>
@@ -12803,7 +12803,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.562382</t>
+          <t>2025-10-23T11:29:11.857501</t>
         </is>
       </c>
     </row>
@@ -12891,7 +12891,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.562382</t>
+          <t>2025-10-23T11:29:11.857501</t>
         </is>
       </c>
     </row>
@@ -12979,7 +12979,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.562382</t>
+          <t>2025-10-23T11:29:11.857501</t>
         </is>
       </c>
     </row>
@@ -13067,7 +13067,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.562382</t>
+          <t>2025-10-23T11:29:11.857501</t>
         </is>
       </c>
     </row>
@@ -13155,7 +13155,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.563382</t>
+          <t>2025-10-23T11:29:11.857501</t>
         </is>
       </c>
     </row>
@@ -13243,7 +13243,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.563382</t>
+          <t>2025-10-23T11:29:11.858494</t>
         </is>
       </c>
     </row>
@@ -13331,7 +13331,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.563382</t>
+          <t>2025-10-23T11:29:11.858494</t>
         </is>
       </c>
     </row>
@@ -13419,7 +13419,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.563382</t>
+          <t>2025-10-23T11:29:11.858494</t>
         </is>
       </c>
     </row>
@@ -13507,7 +13507,7 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.563382</t>
+          <t>2025-10-23T11:29:11.858494</t>
         </is>
       </c>
     </row>
@@ -13595,7 +13595,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.563382</t>
+          <t>2025-10-23T11:29:11.858494</t>
         </is>
       </c>
     </row>
@@ -13683,7 +13683,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.563382</t>
+          <t>2025-10-23T11:29:11.858494</t>
         </is>
       </c>
     </row>
@@ -13771,7 +13771,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.563382</t>
+          <t>2025-10-23T11:29:11.858494</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.563382</t>
+          <t>2025-10-23T11:29:11.858494</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13947,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.563382</t>
+          <t>2025-10-23T11:29:11.858494</t>
         </is>
       </c>
     </row>
@@ -14035,7 +14035,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.564381</t>
+          <t>2025-10-23T11:29:11.859498</t>
         </is>
       </c>
     </row>
@@ -14123,7 +14123,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.564381</t>
+          <t>2025-10-23T11:29:11.859498</t>
         </is>
       </c>
     </row>
@@ -14211,7 +14211,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.564381</t>
+          <t>2025-10-23T11:29:11.860107</t>
         </is>
       </c>
     </row>
@@ -14299,7 +14299,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.564381</t>
+          <t>2025-10-23T11:29:11.862259</t>
         </is>
       </c>
     </row>
@@ -14387,7 +14387,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.564381</t>
+          <t>2025-10-23T11:29:11.862259</t>
         </is>
       </c>
     </row>
@@ -14475,7 +14475,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.564381</t>
+          <t>2025-10-23T11:29:11.862259</t>
         </is>
       </c>
     </row>
@@ -14563,7 +14563,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.564381</t>
+          <t>2025-10-23T11:29:11.862259</t>
         </is>
       </c>
     </row>
@@ -14651,7 +14651,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.564381</t>
+          <t>2025-10-23T11:29:11.862259</t>
         </is>
       </c>
     </row>
@@ -14739,7 +14739,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.564381</t>
+          <t>2025-10-23T11:29:11.862259</t>
         </is>
       </c>
     </row>
@@ -14827,7 +14827,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.565381</t>
+          <t>2025-10-23T11:29:11.862259</t>
         </is>
       </c>
     </row>
@@ -14915,7 +14915,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.565381</t>
+          <t>2025-10-23T11:29:11.862259</t>
         </is>
       </c>
     </row>
@@ -15003,7 +15003,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.565381</t>
+          <t>2025-10-23T11:29:11.862259</t>
         </is>
       </c>
     </row>
@@ -15091,7 +15091,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.565381</t>
+          <t>2025-10-23T11:29:11.862259</t>
         </is>
       </c>
     </row>
@@ -15179,7 +15179,7 @@
       <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.565381</t>
+          <t>2025-10-23T11:29:11.862259</t>
         </is>
       </c>
     </row>
@@ -15267,7 +15267,7 @@
       <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.565381</t>
+          <t>2025-10-23T11:29:11.862259</t>
         </is>
       </c>
     </row>
@@ -15355,7 +15355,7 @@
       <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.565381</t>
+          <t>2025-10-23T11:29:11.862259</t>
         </is>
       </c>
     </row>
@@ -15443,7 +15443,7 @@
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.565381</t>
+          <t>2025-10-23T11:29:11.862259</t>
         </is>
       </c>
     </row>
@@ -15531,7 +15531,7 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-20T01:21:29.565381</t>
+          <t>2025-10-23T11:29:11.862259</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R75_Pproporcion.xlsx
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.545968</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.545968</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.545968</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.545968</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.545968</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.545968</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.545968</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.545968</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.545968</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.545968</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.545968</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.545968</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.545968</t>
         </is>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.545968</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.545968</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.545968</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.832183</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.844500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.844500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.845500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.845500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.845500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.845500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.845500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.845500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -4443,7 +4443,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.845500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.845500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.846497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -4707,7 +4707,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.846497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -4795,7 +4795,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.846497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.846497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.846497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.846497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.846497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.846497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.846497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.847497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.847497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.847497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.847497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.847497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.847497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.847497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.847497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -6115,7 +6115,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.848498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -6203,7 +6203,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.848498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6291,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.848498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -6379,7 +6379,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.848498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.848498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -6555,7 +6555,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.848498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.848498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.848498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -6819,7 +6819,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.848498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -6907,7 +6907,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.849500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6995,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.849500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.849500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -7171,7 +7171,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.849500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7259,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.849500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -7347,7 +7347,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.849500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.849500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -7523,7 +7523,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.849500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.850500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -7699,7 +7699,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.850500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -7787,7 +7787,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.850500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.850500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -7963,7 +7963,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.850500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.850500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -8139,7 +8139,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.850500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.850500</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -8315,7 +8315,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.851496</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.851496</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.851496</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.851496</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -8667,7 +8667,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.851496</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -8755,7 +8755,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.851496</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.851496</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -8931,7 +8931,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.851496</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -9019,7 +9019,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.851496</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -9107,7 +9107,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.852495</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -9195,7 +9195,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.852495</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -9283,7 +9283,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.852495</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9371,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.852495</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -9459,7 +9459,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.852495</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -9547,7 +9547,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.852495</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -9635,7 +9635,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.852495</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.852495</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -9811,7 +9811,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.853498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -9899,7 +9899,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.853498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -9987,7 +9987,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.853498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.853498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -10163,7 +10163,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.853498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10251,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.853498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -10339,7 +10339,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.853498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -10427,7 +10427,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.853498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -10515,7 +10515,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.853498</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -10603,7 +10603,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.854499</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -10691,7 +10691,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.854499</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -10779,7 +10779,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.854499</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -10867,7 +10867,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.854499</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -10955,7 +10955,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.854499</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -11043,7 +11043,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.855504</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -11131,7 +11131,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.855504</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -11219,7 +11219,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.855504</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -11307,7 +11307,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.855504</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -11395,7 +11395,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.855504</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -11483,7 +11483,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.855504</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -11571,7 +11571,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.855504</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -11659,7 +11659,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.855504</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -11747,7 +11747,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.856497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -11835,7 +11835,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.856497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -11923,7 +11923,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.856497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -12011,7 +12011,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.856497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -12099,7 +12099,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.856497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -12187,7 +12187,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.856497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -12275,7 +12275,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.856497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -12363,7 +12363,7 @@
       <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.856497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -12451,7 +12451,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.856497</t>
+          <t>2025-10-23T12:45:13.558984</t>
         </is>
       </c>
     </row>
@@ -12539,7 +12539,7 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.857501</t>
+          <t>2025-10-23T12:45:13.574760</t>
         </is>
       </c>
     </row>
@@ -12627,7 +12627,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.857501</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -12715,7 +12715,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.857501</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -12803,7 +12803,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.857501</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -12891,7 +12891,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.857501</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -12979,7 +12979,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.857501</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -13067,7 +13067,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.857501</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -13155,7 +13155,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.857501</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -13243,7 +13243,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.858494</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -13331,7 +13331,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.858494</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -13419,7 +13419,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.858494</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -13507,7 +13507,7 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.858494</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -13595,7 +13595,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.858494</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -13683,7 +13683,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.858494</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -13771,7 +13771,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.858494</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.858494</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13947,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.858494</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -14035,7 +14035,7 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.859498</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -14123,7 +14123,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.859498</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -14211,7 +14211,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.860107</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -14299,7 +14299,7 @@
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.862259</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -14387,7 +14387,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.862259</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -14475,7 +14475,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.862259</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -14563,7 +14563,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.862259</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -14651,7 +14651,7 @@
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.862259</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -14739,7 +14739,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.862259</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -14827,7 +14827,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.862259</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -14915,7 +14915,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.862259</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -15003,7 +15003,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.862259</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -15091,7 +15091,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.862259</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -15179,7 +15179,7 @@
       <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.862259</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -15267,7 +15267,7 @@
       <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.862259</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -15355,7 +15355,7 @@
       <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.862259</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -15443,7 +15443,7 @@
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.862259</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
@@ -15531,7 +15531,7 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:11.862259</t>
+          <t>2025-10-23T12:45:13.575273</t>
         </is>
       </c>
     </row>
